--- a/EDA_DF/Bundesliga_understat.xlsx
+++ b/EDA_DF/Bundesliga_understat.xlsx
@@ -646,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="W2" s="3" t="n">
-        <v>2.039065100532408</v>
+        <v>2.064961738043982</v>
       </c>
       <c r="X2" t="n">
         <v>23277</v>
@@ -731,7 +731,7 @@
         <v>1</v>
       </c>
       <c r="W3" s="3" t="n">
-        <v>2.039065100532408</v>
+        <v>2.064961738043982</v>
       </c>
       <c r="X3" t="n">
         <v>23277</v>
@@ -816,7 +816,7 @@
         <v>1</v>
       </c>
       <c r="W4" s="3" t="n">
-        <v>2.122398433865741</v>
+        <v>2.148295071377315</v>
       </c>
       <c r="X4" t="n">
         <v>23276</v>
@@ -901,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="W5" s="3" t="n">
-        <v>2.122398433865741</v>
+        <v>2.148295071377315</v>
       </c>
       <c r="X5" t="n">
         <v>23276</v>
@@ -986,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="W6" s="3" t="n">
-        <v>2.997398433865741</v>
+        <v>3.023295071377315</v>
       </c>
       <c r="X6" t="n">
         <v>23274</v>
@@ -1071,7 +1071,7 @@
         <v>1</v>
       </c>
       <c r="W7" s="3" t="n">
-        <v>2.997398433865741</v>
+        <v>3.023295071377315</v>
       </c>
       <c r="X7" t="n">
         <v>23274</v>
@@ -1156,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="W8" s="3" t="n">
-        <v>3.12239843386574</v>
+        <v>3.148295071377315</v>
       </c>
       <c r="X8" t="n">
         <v>23280</v>
@@ -1241,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="W9" s="3" t="n">
-        <v>3.12239843386574</v>
+        <v>3.148295071377315</v>
       </c>
       <c r="X9" t="n">
         <v>23275</v>
@@ -1326,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="W10" s="3" t="n">
-        <v>3.12239843386574</v>
+        <v>3.148295071377315</v>
       </c>
       <c r="X10" t="n">
         <v>23272</v>
@@ -1411,7 +1411,7 @@
         <v>1</v>
       </c>
       <c r="W11" s="3" t="n">
-        <v>3.12239843386574</v>
+        <v>3.148295071377315</v>
       </c>
       <c r="X11" t="n">
         <v>23272</v>
@@ -1496,7 +1496,7 @@
         <v>1</v>
       </c>
       <c r="W12" s="3" t="n">
-        <v>3.12239843386574</v>
+        <v>3.148295071377315</v>
       </c>
       <c r="X12" t="n">
         <v>23280</v>
@@ -1581,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="W13" s="3" t="n">
-        <v>3.12239843386574</v>
+        <v>3.148295071377315</v>
       </c>
       <c r="X13" t="n">
         <v>23275</v>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="W14" s="3" t="n">
-        <v>3.12239843386574</v>
+        <v>3.148295071377315</v>
       </c>
       <c r="X14" t="n">
         <v>23278</v>
@@ -1751,7 +1751,7 @@
         <v>1</v>
       </c>
       <c r="W15" s="3" t="n">
-        <v>3.12239843386574</v>
+        <v>3.148295071377315</v>
       </c>
       <c r="X15" t="n">
         <v>23279</v>
@@ -1836,7 +1836,7 @@
         <v>1</v>
       </c>
       <c r="W16" s="3" t="n">
-        <v>3.12239843386574</v>
+        <v>3.148295071377315</v>
       </c>
       <c r="X16" t="n">
         <v>23279</v>
@@ -1921,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="W17" s="3" t="n">
-        <v>3.12239843386574</v>
+        <v>3.148295071377315</v>
       </c>
       <c r="X17" t="n">
         <v>23278</v>
@@ -2006,7 +2006,7 @@
         <v>1</v>
       </c>
       <c r="W18" s="3" t="n">
-        <v>3.914065100532407</v>
+        <v>3.939961738043982</v>
       </c>
       <c r="X18" t="n">
         <v>23273</v>
@@ -2091,7 +2091,7 @@
         <v>1</v>
       </c>
       <c r="W19" s="3" t="n">
-        <v>3.914065100532407</v>
+        <v>3.939961738043982</v>
       </c>
       <c r="X19" t="n">
         <v>23273</v>
@@ -2176,7 +2176,7 @@
         <v>1</v>
       </c>
       <c r="W20" s="3" t="n">
-        <v>8.955731767199074</v>
+        <v>8.981628404710648</v>
       </c>
       <c r="X20" t="n">
         <v>23264</v>
@@ -2261,7 +2261,7 @@
         <v>1</v>
       </c>
       <c r="W21" s="3" t="n">
-        <v>8.955731767199074</v>
+        <v>8.981628404710648</v>
       </c>
       <c r="X21" t="n">
         <v>23264</v>
@@ -2346,7 +2346,7 @@
         <v>1</v>
       </c>
       <c r="W22" s="3" t="n">
-        <v>9.039065100532408</v>
+        <v>9.064961738043982</v>
       </c>
       <c r="X22" t="n">
         <v>23270</v>
@@ -2431,7 +2431,7 @@
         <v>1</v>
       </c>
       <c r="W23" s="3" t="n">
-        <v>9.039065100532408</v>
+        <v>9.064961738043982</v>
       </c>
       <c r="X23" t="n">
         <v>23270</v>
@@ -2516,7 +2516,7 @@
         <v>1</v>
       </c>
       <c r="W24" s="3" t="n">
-        <v>9.12239843386574</v>
+        <v>9.148295071377316</v>
       </c>
       <c r="X24" t="n">
         <v>23267</v>
@@ -2601,7 +2601,7 @@
         <v>1</v>
       </c>
       <c r="W25" s="3" t="n">
-        <v>9.12239843386574</v>
+        <v>9.148295071377316</v>
       </c>
       <c r="X25" t="n">
         <v>23267</v>
@@ -2686,7 +2686,7 @@
         <v>1</v>
       </c>
       <c r="W26" s="3" t="n">
-        <v>9.99739843386574</v>
+        <v>10.02329507137732</v>
       </c>
       <c r="X26" t="n">
         <v>23271</v>
@@ -2771,7 +2771,7 @@
         <v>1</v>
       </c>
       <c r="W27" s="3" t="n">
-        <v>9.99739843386574</v>
+        <v>10.02329507137732</v>
       </c>
       <c r="X27" t="n">
         <v>23271</v>
@@ -2856,7 +2856,7 @@
         <v>1</v>
       </c>
       <c r="W28" s="3" t="n">
-        <v>10.12239843386574</v>
+        <v>10.14829507137732</v>
       </c>
       <c r="X28" t="n">
         <v>23265</v>
@@ -2941,7 +2941,7 @@
         <v>1</v>
       </c>
       <c r="W29" s="3" t="n">
-        <v>10.12239843386574</v>
+        <v>10.14829507137732</v>
       </c>
       <c r="X29" t="n">
         <v>23263</v>
@@ -3026,7 +3026,7 @@
         <v>1</v>
       </c>
       <c r="W30" s="3" t="n">
-        <v>10.12239843386574</v>
+        <v>10.14829507137732</v>
       </c>
       <c r="X30" t="n">
         <v>23263</v>
@@ -3111,7 +3111,7 @@
         <v>1</v>
       </c>
       <c r="W31" s="3" t="n">
-        <v>10.12239843386574</v>
+        <v>10.14829507137732</v>
       </c>
       <c r="X31" t="n">
         <v>23265</v>
@@ -3196,7 +3196,7 @@
         <v>1</v>
       </c>
       <c r="W32" s="3" t="n">
-        <v>10.12239843386574</v>
+        <v>10.14829507137732</v>
       </c>
       <c r="X32" t="n">
         <v>23266</v>
@@ -3281,7 +3281,7 @@
         <v>1</v>
       </c>
       <c r="W33" s="3" t="n">
-        <v>10.12239843386574</v>
+        <v>10.14829507137732</v>
       </c>
       <c r="X33" t="n">
         <v>23266</v>
@@ -3366,7 +3366,7 @@
         <v>1</v>
       </c>
       <c r="W34" s="3" t="n">
-        <v>10.12239843386574</v>
+        <v>10.14829507137732</v>
       </c>
       <c r="X34" t="n">
         <v>23269</v>
@@ -3451,7 +3451,7 @@
         <v>1</v>
       </c>
       <c r="W35" s="3" t="n">
-        <v>10.12239843386574</v>
+        <v>10.14829507137732</v>
       </c>
       <c r="X35" t="n">
         <v>23269</v>
@@ -3536,7 +3536,7 @@
         <v>1</v>
       </c>
       <c r="W36" s="3" t="n">
-        <v>10.91406510053241</v>
+        <v>10.93996173804398</v>
       </c>
       <c r="X36" t="n">
         <v>23268</v>
@@ -3621,7 +3621,7 @@
         <v>1</v>
       </c>
       <c r="W37" s="3" t="n">
-        <v>10.91406510053241</v>
+        <v>10.93996173804398</v>
       </c>
       <c r="X37" t="n">
         <v>23268</v>
@@ -3706,7 +3706,7 @@
         <v>1</v>
       </c>
       <c r="W38" s="3" t="n">
-        <v>16.03906510053241</v>
+        <v>16.06496173804398</v>
       </c>
       <c r="X38" t="n">
         <v>23260</v>
@@ -3791,7 +3791,7 @@
         <v>1</v>
       </c>
       <c r="W39" s="3" t="n">
-        <v>16.03906510053241</v>
+        <v>16.06496173804398</v>
       </c>
       <c r="X39" t="n">
         <v>23260</v>
@@ -3876,7 +3876,7 @@
         <v>1</v>
       </c>
       <c r="W40" s="3" t="n">
-        <v>16.12239843386574</v>
+        <v>16.14829507137732</v>
       </c>
       <c r="X40" t="n">
         <v>23255</v>
@@ -3961,7 +3961,7 @@
         <v>1</v>
       </c>
       <c r="W41" s="3" t="n">
-        <v>16.12239843386574</v>
+        <v>16.14829507137732</v>
       </c>
       <c r="X41" t="n">
         <v>23255</v>
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="W42" s="3" t="n">
-        <v>16.99739843386574</v>
+        <v>17.02329507137732</v>
       </c>
       <c r="X42" t="n">
         <v>23254</v>
@@ -4131,7 +4131,7 @@
         <v>1</v>
       </c>
       <c r="W43" s="3" t="n">
-        <v>16.99739843386574</v>
+        <v>17.02329507137732</v>
       </c>
       <c r="X43" t="n">
         <v>23254</v>
@@ -4216,7 +4216,7 @@
         <v>1</v>
       </c>
       <c r="W44" s="3" t="n">
-        <v>17.12239843386574</v>
+        <v>17.14829507137732</v>
       </c>
       <c r="X44" t="n">
         <v>23257</v>
@@ -4301,7 +4301,7 @@
         <v>1</v>
       </c>
       <c r="W45" s="3" t="n">
-        <v>17.12239843386574</v>
+        <v>17.14829507137732</v>
       </c>
       <c r="X45" t="n">
         <v>23256</v>
@@ -4386,7 +4386,7 @@
         <v>1</v>
       </c>
       <c r="W46" s="3" t="n">
-        <v>17.12239843386574</v>
+        <v>17.14829507137732</v>
       </c>
       <c r="X46" t="n">
         <v>23256</v>
@@ -4471,7 +4471,7 @@
         <v>1</v>
       </c>
       <c r="W47" s="3" t="n">
-        <v>17.12239843386574</v>
+        <v>17.14829507137732</v>
       </c>
       <c r="X47" t="n">
         <v>23257</v>
@@ -4556,7 +4556,7 @@
         <v>1</v>
       </c>
       <c r="W48" s="3" t="n">
-        <v>17.12239843386574</v>
+        <v>17.14829507137732</v>
       </c>
       <c r="X48" t="n">
         <v>23262</v>
@@ -4641,7 +4641,7 @@
         <v>1</v>
       </c>
       <c r="W49" s="3" t="n">
-        <v>17.12239843386574</v>
+        <v>17.14829507137732</v>
       </c>
       <c r="X49" t="n">
         <v>23259</v>
@@ -4726,7 +4726,7 @@
         <v>1</v>
       </c>
       <c r="W50" s="3" t="n">
-        <v>17.12239843386574</v>
+        <v>17.14829507137732</v>
       </c>
       <c r="X50" t="n">
         <v>23259</v>
@@ -4811,7 +4811,7 @@
         <v>1</v>
       </c>
       <c r="W51" s="3" t="n">
-        <v>17.12239843386574</v>
+        <v>17.14829507137732</v>
       </c>
       <c r="X51" t="n">
         <v>23261</v>
@@ -4896,7 +4896,7 @@
         <v>1</v>
       </c>
       <c r="W52" s="3" t="n">
-        <v>17.12239843386574</v>
+        <v>17.14829507137732</v>
       </c>
       <c r="X52" t="n">
         <v>23261</v>
@@ -4981,7 +4981,7 @@
         <v>1</v>
       </c>
       <c r="W53" s="3" t="n">
-        <v>17.12239843386574</v>
+        <v>17.14829507137732</v>
       </c>
       <c r="X53" t="n">
         <v>23262</v>
@@ -5066,7 +5066,7 @@
         <v>1</v>
       </c>
       <c r="W54" s="3" t="n">
-        <v>17.91406510053241</v>
+        <v>17.93996173804398</v>
       </c>
       <c r="X54" t="n">
         <v>23258</v>
@@ -5151,7 +5151,7 @@
         <v>1</v>
       </c>
       <c r="W55" s="3" t="n">
-        <v>17.91406510053241</v>
+        <v>17.93996173804398</v>
       </c>
       <c r="X55" t="n">
         <v>23258</v>
@@ -5236,7 +5236,7 @@
         <v>1</v>
       </c>
       <c r="W56" s="3" t="n">
-        <v>23.03906510053241</v>
+        <v>23.06496173804398</v>
       </c>
       <c r="X56" t="n">
         <v>23247</v>
@@ -5321,7 +5321,7 @@
         <v>1</v>
       </c>
       <c r="W57" s="3" t="n">
-        <v>23.03906510053241</v>
+        <v>23.06496173804398</v>
       </c>
       <c r="X57" t="n">
         <v>23247</v>
@@ -5406,7 +5406,7 @@
         <v>1</v>
       </c>
       <c r="W58" s="3" t="n">
-        <v>23.12239843386574</v>
+        <v>23.14829507137732</v>
       </c>
       <c r="X58" t="n">
         <v>23253</v>
@@ -5491,7 +5491,7 @@
         <v>1</v>
       </c>
       <c r="W59" s="3" t="n">
-        <v>23.12239843386574</v>
+        <v>23.14829507137732</v>
       </c>
       <c r="X59" t="n">
         <v>23253</v>
@@ -5576,7 +5576,7 @@
         <v>1</v>
       </c>
       <c r="W60" s="3" t="n">
-        <v>23.99739843386574</v>
+        <v>24.02329507137732</v>
       </c>
       <c r="X60" t="n">
         <v>23250</v>
@@ -5661,7 +5661,7 @@
         <v>1</v>
       </c>
       <c r="W61" s="3" t="n">
-        <v>23.99739843386574</v>
+        <v>24.02329507137732</v>
       </c>
       <c r="X61" t="n">
         <v>23250</v>
@@ -5746,7 +5746,7 @@
         <v>1</v>
       </c>
       <c r="W62" s="3" t="n">
-        <v>24.12239843386574</v>
+        <v>24.14829507137732</v>
       </c>
       <c r="X62" t="n">
         <v>23245</v>
@@ -5831,7 +5831,7 @@
         <v>1</v>
       </c>
       <c r="W63" s="3" t="n">
-        <v>24.12239843386574</v>
+        <v>24.14829507137732</v>
       </c>
       <c r="X63" t="n">
         <v>23245</v>
@@ -5916,7 +5916,7 @@
         <v>1</v>
       </c>
       <c r="W64" s="3" t="n">
-        <v>24.12239843386574</v>
+        <v>24.14829507137732</v>
       </c>
       <c r="X64" t="n">
         <v>23248</v>
@@ -6001,7 +6001,7 @@
         <v>1</v>
       </c>
       <c r="W65" s="3" t="n">
-        <v>24.12239843386574</v>
+        <v>24.14829507137732</v>
       </c>
       <c r="X65" t="n">
         <v>23248</v>
@@ -6086,7 +6086,7 @@
         <v>1</v>
       </c>
       <c r="W66" s="3" t="n">
-        <v>24.12239843386574</v>
+        <v>24.14829507137732</v>
       </c>
       <c r="X66" t="n">
         <v>23249</v>
@@ -6171,7 +6171,7 @@
         <v>1</v>
       </c>
       <c r="W67" s="3" t="n">
-        <v>24.12239843386574</v>
+        <v>24.14829507137732</v>
       </c>
       <c r="X67" t="n">
         <v>23249</v>
@@ -6256,7 +6256,7 @@
         <v>1</v>
       </c>
       <c r="W68" s="3" t="n">
-        <v>24.12239843386574</v>
+        <v>24.14829507137732</v>
       </c>
       <c r="X68" t="n">
         <v>23251</v>
@@ -6341,7 +6341,7 @@
         <v>1</v>
       </c>
       <c r="W69" s="3" t="n">
-        <v>24.12239843386574</v>
+        <v>24.14829507137732</v>
       </c>
       <c r="X69" t="n">
         <v>23251</v>
@@ -6426,7 +6426,7 @@
         <v>1</v>
       </c>
       <c r="W70" s="3" t="n">
-        <v>24.12239843386574</v>
+        <v>24.14829507137732</v>
       </c>
       <c r="X70" t="n">
         <v>23252</v>
@@ -6511,7 +6511,7 @@
         <v>1</v>
       </c>
       <c r="W71" s="3" t="n">
-        <v>24.12239843386574</v>
+        <v>24.14829507137732</v>
       </c>
       <c r="X71" t="n">
         <v>23252</v>
@@ -6596,7 +6596,7 @@
         <v>1</v>
       </c>
       <c r="W72" s="3" t="n">
-        <v>24.91406510053241</v>
+        <v>24.93996173804398</v>
       </c>
       <c r="X72" t="n">
         <v>23246</v>
@@ -6681,7 +6681,7 @@
         <v>1</v>
       </c>
       <c r="W73" s="3" t="n">
-        <v>24.91406510053241</v>
+        <v>24.93996173804398</v>
       </c>
       <c r="X73" t="n">
         <v>23246</v>
@@ -6766,7 +6766,7 @@
         <v>1</v>
       </c>
       <c r="W74" s="3" t="n">
-        <v>26.99739843386574</v>
+        <v>27.02329507137731</v>
       </c>
       <c r="X74" t="n">
         <v>23221</v>
@@ -6851,7 +6851,7 @@
         <v>1</v>
       </c>
       <c r="W75" s="3" t="n">
-        <v>26.99739843386574</v>
+        <v>27.02329507137731</v>
       </c>
       <c r="X75" t="n">
         <v>23221</v>
@@ -6936,7 +6936,7 @@
         <v>1</v>
       </c>
       <c r="W76" s="3" t="n">
-        <v>30.03906510053241</v>
+        <v>30.06496173804398</v>
       </c>
       <c r="X76" t="n">
         <v>23237</v>
@@ -7021,7 +7021,7 @@
         <v>1</v>
       </c>
       <c r="W77" s="3" t="n">
-        <v>30.03906510053241</v>
+        <v>30.06496173804398</v>
       </c>
       <c r="X77" t="n">
         <v>23237</v>
@@ -7106,7 +7106,7 @@
         <v>1</v>
       </c>
       <c r="W78" s="3" t="n">
-        <v>30.12239843386574</v>
+        <v>30.14829507137731</v>
       </c>
       <c r="X78" t="n">
         <v>23239</v>
@@ -7191,7 +7191,7 @@
         <v>1</v>
       </c>
       <c r="W79" s="3" t="n">
-        <v>30.12239843386574</v>
+        <v>30.14829507137731</v>
       </c>
       <c r="X79" t="n">
         <v>23239</v>
@@ -7276,7 +7276,7 @@
         <v>1</v>
       </c>
       <c r="W80" s="3" t="n">
-        <v>30.99739843386574</v>
+        <v>31.02329507137731</v>
       </c>
       <c r="X80" t="n">
         <v>23241</v>
@@ -7361,7 +7361,7 @@
         <v>1</v>
       </c>
       <c r="W81" s="3" t="n">
-        <v>30.99739843386574</v>
+        <v>31.02329507137731</v>
       </c>
       <c r="X81" t="n">
         <v>23241</v>
@@ -7446,7 +7446,7 @@
         <v>1</v>
       </c>
       <c r="W82" s="3" t="n">
-        <v>31.12239843386574</v>
+        <v>31.14829507137731</v>
       </c>
       <c r="X82" t="n">
         <v>23238</v>
@@ -7531,7 +7531,7 @@
         <v>1</v>
       </c>
       <c r="W83" s="3" t="n">
-        <v>31.12239843386574</v>
+        <v>31.14829507137731</v>
       </c>
       <c r="X83" t="n">
         <v>23236</v>
@@ -7616,7 +7616,7 @@
         <v>1</v>
       </c>
       <c r="W84" s="3" t="n">
-        <v>31.12239843386574</v>
+        <v>31.14829507137731</v>
       </c>
       <c r="X84" t="n">
         <v>23236</v>
@@ -7701,7 +7701,7 @@
         <v>1</v>
       </c>
       <c r="W85" s="3" t="n">
-        <v>31.12239843386574</v>
+        <v>31.14829507137731</v>
       </c>
       <c r="X85" t="n">
         <v>23238</v>
@@ -7786,7 +7786,7 @@
         <v>1</v>
       </c>
       <c r="W86" s="3" t="n">
-        <v>31.12239843386574</v>
+        <v>31.14829507137731</v>
       </c>
       <c r="X86" t="n">
         <v>23240</v>
@@ -7871,7 +7871,7 @@
         <v>1</v>
       </c>
       <c r="W87" s="3" t="n">
-        <v>31.12239843386574</v>
+        <v>31.14829507137731</v>
       </c>
       <c r="X87" t="n">
         <v>23240</v>
@@ -7956,7 +7956,7 @@
         <v>1</v>
       </c>
       <c r="W88" s="3" t="n">
-        <v>31.12239843386574</v>
+        <v>31.14829507137731</v>
       </c>
       <c r="X88" t="n">
         <v>23244</v>
@@ -8041,7 +8041,7 @@
         <v>1</v>
       </c>
       <c r="W89" s="3" t="n">
-        <v>31.12239843386574</v>
+        <v>31.14829507137731</v>
       </c>
       <c r="X89" t="n">
         <v>23242</v>
@@ -8126,7 +8126,7 @@
         <v>1</v>
       </c>
       <c r="W90" s="3" t="n">
-        <v>31.12239843386574</v>
+        <v>31.14829507137731</v>
       </c>
       <c r="X90" t="n">
         <v>23242</v>
@@ -8211,7 +8211,7 @@
         <v>1</v>
       </c>
       <c r="W91" s="3" t="n">
-        <v>31.12239843386574</v>
+        <v>31.14829507137731</v>
       </c>
       <c r="X91" t="n">
         <v>23244</v>
@@ -8296,7 +8296,7 @@
         <v>1</v>
       </c>
       <c r="W92" s="3" t="n">
-        <v>31.91406510053241</v>
+        <v>31.93996173804398</v>
       </c>
       <c r="X92" t="n">
         <v>23243</v>
@@ -8381,7 +8381,7 @@
         <v>1</v>
       </c>
       <c r="W93" s="3" t="n">
-        <v>31.91406510053241</v>
+        <v>31.93996173804398</v>
       </c>
       <c r="X93" t="n">
         <v>23243</v>
@@ -8466,7 +8466,7 @@
         <v>1</v>
       </c>
       <c r="W94" s="3" t="n">
-        <v>37.0390651005324</v>
+        <v>37.06496173804398</v>
       </c>
       <c r="X94" t="n">
         <v>23227</v>
@@ -8551,7 +8551,7 @@
         <v>1</v>
       </c>
       <c r="W95" s="3" t="n">
-        <v>37.0390651005324</v>
+        <v>37.06496173804398</v>
       </c>
       <c r="X95" t="n">
         <v>23227</v>
@@ -8636,7 +8636,7 @@
         <v>1</v>
       </c>
       <c r="W96" s="3" t="n">
-        <v>37.12239843386574</v>
+        <v>37.14829507137731</v>
       </c>
       <c r="X96" t="n">
         <v>23228</v>
@@ -8721,7 +8721,7 @@
         <v>1</v>
       </c>
       <c r="W97" s="3" t="n">
-        <v>37.12239843386574</v>
+        <v>37.14829507137731</v>
       </c>
       <c r="X97" t="n">
         <v>23228</v>
@@ -8806,7 +8806,7 @@
         <v>1</v>
       </c>
       <c r="W98" s="3" t="n">
-        <v>37.99739843386574</v>
+        <v>38.02329507137731</v>
       </c>
       <c r="X98" t="n">
         <v>23229</v>
@@ -8891,7 +8891,7 @@
         <v>1</v>
       </c>
       <c r="W99" s="3" t="n">
-        <v>37.99739843386574</v>
+        <v>38.02329507137731</v>
       </c>
       <c r="X99" t="n">
         <v>23229</v>
@@ -8976,7 +8976,7 @@
         <v>1</v>
       </c>
       <c r="W100" s="3" t="n">
-        <v>38.12239843386574</v>
+        <v>38.14829507137731</v>
       </c>
       <c r="X100" t="n">
         <v>23234</v>
@@ -9061,7 +9061,7 @@
         <v>1</v>
       </c>
       <c r="W101" s="3" t="n">
-        <v>38.12239843386574</v>
+        <v>38.14829507137731</v>
       </c>
       <c r="X101" t="n">
         <v>23235</v>
@@ -9146,7 +9146,7 @@
         <v>1</v>
       </c>
       <c r="W102" s="3" t="n">
-        <v>38.12239843386574</v>
+        <v>38.14829507137731</v>
       </c>
       <c r="X102" t="n">
         <v>23235</v>
@@ -9231,7 +9231,7 @@
         <v>1</v>
       </c>
       <c r="W103" s="3" t="n">
-        <v>38.12239843386574</v>
+        <v>38.14829507137731</v>
       </c>
       <c r="X103" t="n">
         <v>23231</v>
@@ -9316,7 +9316,7 @@
         <v>1</v>
       </c>
       <c r="W104" s="3" t="n">
-        <v>38.12239843386574</v>
+        <v>38.14829507137731</v>
       </c>
       <c r="X104" t="n">
         <v>23232</v>
@@ -9401,7 +9401,7 @@
         <v>1</v>
       </c>
       <c r="W105" s="3" t="n">
-        <v>38.12239843386574</v>
+        <v>38.14829507137731</v>
       </c>
       <c r="X105" t="n">
         <v>23232</v>
@@ -9486,7 +9486,7 @@
         <v>1</v>
       </c>
       <c r="W106" s="3" t="n">
-        <v>38.12239843386574</v>
+        <v>38.14829507137731</v>
       </c>
       <c r="X106" t="n">
         <v>23233</v>
@@ -9571,7 +9571,7 @@
         <v>1</v>
       </c>
       <c r="W107" s="3" t="n">
-        <v>38.12239843386574</v>
+        <v>38.14829507137731</v>
       </c>
       <c r="X107" t="n">
         <v>23233</v>
@@ -9656,7 +9656,7 @@
         <v>1</v>
       </c>
       <c r="W108" s="3" t="n">
-        <v>38.12239843386574</v>
+        <v>38.14829507137731</v>
       </c>
       <c r="X108" t="n">
         <v>23234</v>
@@ -9741,7 +9741,7 @@
         <v>1</v>
       </c>
       <c r="W109" s="3" t="n">
-        <v>38.12239843386574</v>
+        <v>38.14829507137731</v>
       </c>
       <c r="X109" t="n">
         <v>23231</v>
@@ -9826,7 +9826,7 @@
         <v>1</v>
       </c>
       <c r="W110" s="3" t="n">
-        <v>38.9140651005324</v>
+        <v>38.93996173804398</v>
       </c>
       <c r="X110" t="n">
         <v>23230</v>
@@ -9911,7 +9911,7 @@
         <v>1</v>
       </c>
       <c r="W111" s="3" t="n">
-        <v>38.9140651005324</v>
+        <v>38.93996173804398</v>
       </c>
       <c r="X111" t="n">
         <v>23230</v>
@@ -9996,7 +9996,7 @@
         <v>1</v>
       </c>
       <c r="W112" s="3" t="n">
-        <v>40.95573176719908</v>
+        <v>40.98162840471065</v>
       </c>
       <c r="X112" t="n">
         <v>23173</v>
@@ -10081,7 +10081,7 @@
         <v>1</v>
       </c>
       <c r="W113" s="3" t="n">
-        <v>40.95573176719908</v>
+        <v>40.98162840471065</v>
       </c>
       <c r="X113" t="n">
         <v>23173</v>
@@ -10166,7 +10166,7 @@
         <v>1</v>
       </c>
       <c r="W114" s="3" t="n">
-        <v>44.0390651005324</v>
+        <v>44.06496173804398</v>
       </c>
       <c r="X114" t="n">
         <v>23222</v>
@@ -10251,7 +10251,7 @@
         <v>1</v>
       </c>
       <c r="W115" s="3" t="n">
-        <v>44.0390651005324</v>
+        <v>44.06496173804398</v>
       </c>
       <c r="X115" t="n">
         <v>23222</v>
@@ -10336,7 +10336,7 @@
         <v>1</v>
       </c>
       <c r="W116" s="3" t="n">
-        <v>44.12239843386574</v>
+        <v>44.14829507137731</v>
       </c>
       <c r="X116" t="n">
         <v>23218</v>
@@ -10421,7 +10421,7 @@
         <v>1</v>
       </c>
       <c r="W117" s="3" t="n">
-        <v>44.12239843386574</v>
+        <v>44.14829507137731</v>
       </c>
       <c r="X117" t="n">
         <v>23218</v>
@@ -10506,7 +10506,7 @@
         <v>1</v>
       </c>
       <c r="W118" s="3" t="n">
-        <v>44.99739843386574</v>
+        <v>45.02329507137731</v>
       </c>
       <c r="X118" t="n">
         <v>23219</v>
@@ -10591,7 +10591,7 @@
         <v>1</v>
       </c>
       <c r="W119" s="3" t="n">
-        <v>44.99739843386574</v>
+        <v>45.02329507137731</v>
       </c>
       <c r="X119" t="n">
         <v>23219</v>
@@ -10676,7 +10676,7 @@
         <v>1</v>
       </c>
       <c r="W120" s="3" t="n">
-        <v>45.12239843386574</v>
+        <v>45.14829507137731</v>
       </c>
       <c r="X120" t="n">
         <v>23223</v>
@@ -10761,7 +10761,7 @@
         <v>1</v>
       </c>
       <c r="W121" s="3" t="n">
-        <v>45.12239843386574</v>
+        <v>45.14829507137731</v>
       </c>
       <c r="X121" t="n">
         <v>23223</v>
@@ -10846,7 +10846,7 @@
         <v>1</v>
       </c>
       <c r="W122" s="3" t="n">
-        <v>45.12239843386574</v>
+        <v>45.14829507137731</v>
       </c>
       <c r="X122" t="n">
         <v>23226</v>
@@ -10931,7 +10931,7 @@
         <v>1</v>
       </c>
       <c r="W123" s="3" t="n">
-        <v>45.12239843386574</v>
+        <v>45.14829507137731</v>
       </c>
       <c r="X123" t="n">
         <v>23224</v>
@@ -11016,7 +11016,7 @@
         <v>1</v>
       </c>
       <c r="W124" s="3" t="n">
-        <v>45.12239843386574</v>
+        <v>45.14829507137731</v>
       </c>
       <c r="X124" t="n">
         <v>23224</v>
@@ -11101,7 +11101,7 @@
         <v>1</v>
       </c>
       <c r="W125" s="3" t="n">
-        <v>45.12239843386574</v>
+        <v>45.14829507137731</v>
       </c>
       <c r="X125" t="n">
         <v>23225</v>
@@ -11186,7 +11186,7 @@
         <v>1</v>
       </c>
       <c r="W126" s="3" t="n">
-        <v>45.12239843386574</v>
+        <v>45.14829507137731</v>
       </c>
       <c r="X126" t="n">
         <v>23220</v>
@@ -11271,7 +11271,7 @@
         <v>1</v>
       </c>
       <c r="W127" s="3" t="n">
-        <v>45.12239843386574</v>
+        <v>45.14829507137731</v>
       </c>
       <c r="X127" t="n">
         <v>23220</v>
@@ -11356,7 +11356,7 @@
         <v>1</v>
       </c>
       <c r="W128" s="3" t="n">
-        <v>45.12239843386574</v>
+        <v>45.14829507137731</v>
       </c>
       <c r="X128" t="n">
         <v>23226</v>
@@ -11441,7 +11441,7 @@
         <v>1</v>
       </c>
       <c r="W129" s="3" t="n">
-        <v>45.12239843386574</v>
+        <v>45.14829507137731</v>
       </c>
       <c r="X129" t="n">
         <v>23225</v>
@@ -11526,7 +11526,7 @@
         <v>1</v>
       </c>
       <c r="W130" s="3" t="n">
-        <v>51.0390651005324</v>
+        <v>51.06496173804398</v>
       </c>
       <c r="X130" t="n">
         <v>23213</v>
@@ -11611,7 +11611,7 @@
         <v>1</v>
       </c>
       <c r="W131" s="3" t="n">
-        <v>51.0390651005324</v>
+        <v>51.06496173804398</v>
       </c>
       <c r="X131" t="n">
         <v>23213</v>
@@ -11696,7 +11696,7 @@
         <v>1</v>
       </c>
       <c r="W132" s="3" t="n">
-        <v>51.12239843386573</v>
+        <v>51.14829507137732</v>
       </c>
       <c r="X132" t="n">
         <v>23215</v>
@@ -11781,7 +11781,7 @@
         <v>1</v>
       </c>
       <c r="W133" s="3" t="n">
-        <v>51.12239843386573</v>
+        <v>51.14829507137732</v>
       </c>
       <c r="X133" t="n">
         <v>23215</v>
@@ -11866,7 +11866,7 @@
         <v>1</v>
       </c>
       <c r="W134" s="3" t="n">
-        <v>51.99739843386573</v>
+        <v>52.02329507137732</v>
       </c>
       <c r="X134" t="n">
         <v>23217</v>
@@ -11951,7 +11951,7 @@
         <v>1</v>
       </c>
       <c r="W135" s="3" t="n">
-        <v>51.99739843386573</v>
+        <v>52.02329507137732</v>
       </c>
       <c r="X135" t="n">
         <v>23217</v>
@@ -12036,7 +12036,7 @@
         <v>1</v>
       </c>
       <c r="W136" s="3" t="n">
-        <v>52.12239843386573</v>
+        <v>52.14829507137732</v>
       </c>
       <c r="X136" t="n">
         <v>23211</v>
@@ -12121,7 +12121,7 @@
         <v>1</v>
       </c>
       <c r="W137" s="3" t="n">
-        <v>52.12239843386573</v>
+        <v>52.14829507137732</v>
       </c>
       <c r="X137" t="n">
         <v>23210</v>
@@ -12206,7 +12206,7 @@
         <v>1</v>
       </c>
       <c r="W138" s="3" t="n">
-        <v>52.12239843386573</v>
+        <v>52.14829507137732</v>
       </c>
       <c r="X138" t="n">
         <v>23210</v>
@@ -12291,7 +12291,7 @@
         <v>1</v>
       </c>
       <c r="W139" s="3" t="n">
-        <v>52.12239843386573</v>
+        <v>52.14829507137732</v>
       </c>
       <c r="X139" t="n">
         <v>23214</v>
@@ -12376,7 +12376,7 @@
         <v>1</v>
       </c>
       <c r="W140" s="3" t="n">
-        <v>52.12239843386573</v>
+        <v>52.14829507137732</v>
       </c>
       <c r="X140" t="n">
         <v>23211</v>
@@ -12461,7 +12461,7 @@
         <v>1</v>
       </c>
       <c r="W141" s="3" t="n">
-        <v>52.12239843386573</v>
+        <v>52.14829507137732</v>
       </c>
       <c r="X141" t="n">
         <v>23212</v>
@@ -12546,7 +12546,7 @@
         <v>1</v>
       </c>
       <c r="W142" s="3" t="n">
-        <v>52.12239843386573</v>
+        <v>52.14829507137732</v>
       </c>
       <c r="X142" t="n">
         <v>23212</v>
@@ -12631,7 +12631,7 @@
         <v>1</v>
       </c>
       <c r="W143" s="3" t="n">
-        <v>52.12239843386573</v>
+        <v>52.14829507137732</v>
       </c>
       <c r="X143" t="n">
         <v>23216</v>
@@ -12716,7 +12716,7 @@
         <v>1</v>
       </c>
       <c r="W144" s="3" t="n">
-        <v>52.12239843386573</v>
+        <v>52.14829507137732</v>
       </c>
       <c r="X144" t="n">
         <v>23216</v>
@@ -12801,7 +12801,7 @@
         <v>1</v>
       </c>
       <c r="W145" s="3" t="n">
-        <v>52.12239843386573</v>
+        <v>52.14829507137732</v>
       </c>
       <c r="X145" t="n">
         <v>23214</v>
@@ -12886,7 +12886,7 @@
         <v>1</v>
       </c>
       <c r="W146" s="3" t="n">
-        <v>52.9140651005324</v>
+        <v>52.93996173804398</v>
       </c>
       <c r="X146" t="n">
         <v>23209</v>
@@ -12971,7 +12971,7 @@
         <v>1</v>
       </c>
       <c r="W147" s="3" t="n">
-        <v>52.9140651005324</v>
+        <v>52.93996173804398</v>
       </c>
       <c r="X147" t="n">
         <v>23209</v>
@@ -13056,7 +13056,7 @@
         <v>1</v>
       </c>
       <c r="W148" s="3" t="n">
-        <v>75.9140651005324</v>
+        <v>75.93996173804399</v>
       </c>
       <c r="X148" t="n">
         <v>23202</v>
@@ -13141,7 +13141,7 @@
         <v>1</v>
       </c>
       <c r="W149" s="3" t="n">
-        <v>75.9140651005324</v>
+        <v>75.93996173804399</v>
       </c>
       <c r="X149" t="n">
         <v>23203</v>
@@ -13226,7 +13226,7 @@
         <v>1</v>
       </c>
       <c r="W150" s="3" t="n">
-        <v>75.9140651005324</v>
+        <v>75.93996173804399</v>
       </c>
       <c r="X150" t="n">
         <v>23204</v>
@@ -13311,7 +13311,7 @@
         <v>1</v>
       </c>
       <c r="W151" s="3" t="n">
-        <v>75.9140651005324</v>
+        <v>75.93996173804399</v>
       </c>
       <c r="X151" t="n">
         <v>23202</v>
@@ -13396,7 +13396,7 @@
         <v>1</v>
       </c>
       <c r="W152" s="3" t="n">
-        <v>75.9140651005324</v>
+        <v>75.93996173804399</v>
       </c>
       <c r="X152" t="n">
         <v>23203</v>
@@ -13481,7 +13481,7 @@
         <v>1</v>
       </c>
       <c r="W153" s="3" t="n">
-        <v>75.9140651005324</v>
+        <v>75.93996173804399</v>
       </c>
       <c r="X153" t="n">
         <v>23204</v>
@@ -13566,7 +13566,7 @@
         <v>1</v>
       </c>
       <c r="W154" s="3" t="n">
-        <v>75.9140651005324</v>
+        <v>75.93996173804399</v>
       </c>
       <c r="X154" t="n">
         <v>23208</v>
@@ -13651,7 +13651,7 @@
         <v>1</v>
       </c>
       <c r="W155" s="3" t="n">
-        <v>75.9140651005324</v>
+        <v>75.93996173804399</v>
       </c>
       <c r="X155" t="n">
         <v>23208</v>
@@ -13736,7 +13736,7 @@
         <v>1</v>
       </c>
       <c r="W156" s="3" t="n">
-        <v>75.9140651005324</v>
+        <v>75.93996173804399</v>
       </c>
       <c r="X156" t="n">
         <v>23207</v>
@@ -13821,7 +13821,7 @@
         <v>1</v>
       </c>
       <c r="W157" s="3" t="n">
-        <v>75.9140651005324</v>
+        <v>75.93996173804399</v>
       </c>
       <c r="X157" t="n">
         <v>23207</v>
@@ -13906,7 +13906,7 @@
         <v>1</v>
       </c>
       <c r="W158" s="3" t="n">
-        <v>75.99739843386574</v>
+        <v>76.02329507137732</v>
       </c>
       <c r="X158" t="n">
         <v>23201</v>
@@ -13991,7 +13991,7 @@
         <v>1</v>
       </c>
       <c r="W159" s="3" t="n">
-        <v>75.99739843386574</v>
+        <v>76.02329507137732</v>
       </c>
       <c r="X159" t="n">
         <v>23201</v>
@@ -14076,7 +14076,7 @@
         <v>1</v>
       </c>
       <c r="W160" s="3" t="n">
-        <v>76.9140651005324</v>
+        <v>76.93996173804399</v>
       </c>
       <c r="X160" t="n">
         <v>23200</v>
@@ -14161,7 +14161,7 @@
         <v>1</v>
       </c>
       <c r="W161" s="3" t="n">
-        <v>76.9140651005324</v>
+        <v>76.93996173804399</v>
       </c>
       <c r="X161" t="n">
         <v>23200</v>
@@ -14246,7 +14246,7 @@
         <v>1</v>
       </c>
       <c r="W162" s="3" t="n">
-        <v>76.9140651005324</v>
+        <v>76.93996173804399</v>
       </c>
       <c r="X162" t="n">
         <v>23205</v>
@@ -14331,7 +14331,7 @@
         <v>1</v>
       </c>
       <c r="W163" s="3" t="n">
-        <v>76.9140651005324</v>
+        <v>76.93996173804399</v>
       </c>
       <c r="X163" t="n">
         <v>23205</v>
@@ -14416,7 +14416,7 @@
         <v>1</v>
       </c>
       <c r="W164" s="3" t="n">
-        <v>76.99739843386574</v>
+        <v>77.02329507137732</v>
       </c>
       <c r="X164" t="n">
         <v>23206</v>
@@ -14501,7 +14501,7 @@
         <v>1</v>
       </c>
       <c r="W165" s="3" t="n">
-        <v>76.99739843386574</v>
+        <v>77.02329507137732</v>
       </c>
       <c r="X165" t="n">
         <v>23206</v>
@@ -14586,7 +14586,7 @@
         <v>1</v>
       </c>
       <c r="W166" s="3" t="n">
-        <v>78.95573176719907</v>
+        <v>78.98162840471065</v>
       </c>
       <c r="X166" t="n">
         <v>23191</v>
@@ -14671,7 +14671,7 @@
         <v>1</v>
       </c>
       <c r="W167" s="3" t="n">
-        <v>78.95573176719907</v>
+        <v>78.98162840471065</v>
       </c>
       <c r="X167" t="n">
         <v>23191</v>
@@ -14756,7 +14756,7 @@
         <v>1</v>
       </c>
       <c r="W168" s="3" t="n">
-        <v>79.0390651005324</v>
+        <v>79.06496173804399</v>
       </c>
       <c r="X168" t="n">
         <v>23194</v>
@@ -14841,7 +14841,7 @@
         <v>1</v>
       </c>
       <c r="W169" s="3" t="n">
-        <v>79.0390651005324</v>
+        <v>79.06496173804399</v>
       </c>
       <c r="X169" t="n">
         <v>23194</v>
@@ -14926,7 +14926,7 @@
         <v>1</v>
       </c>
       <c r="W170" s="3" t="n">
-        <v>79.12239843386574</v>
+        <v>79.14829507137732</v>
       </c>
       <c r="X170" t="n">
         <v>23193</v>
@@ -15011,7 +15011,7 @@
         <v>1</v>
       </c>
       <c r="W171" s="3" t="n">
-        <v>79.12239843386574</v>
+        <v>79.14829507137732</v>
       </c>
       <c r="X171" t="n">
         <v>23193</v>
@@ -15096,7 +15096,7 @@
         <v>1</v>
       </c>
       <c r="W172" s="3" t="n">
-        <v>79.99739843386574</v>
+        <v>80.02329507137732</v>
       </c>
       <c r="X172" t="n">
         <v>23192</v>
@@ -15181,7 +15181,7 @@
         <v>1</v>
       </c>
       <c r="W173" s="3" t="n">
-        <v>79.99739843386574</v>
+        <v>80.02329507137732</v>
       </c>
       <c r="X173" t="n">
         <v>23192</v>
@@ -15266,7 +15266,7 @@
         <v>1</v>
       </c>
       <c r="W174" s="3" t="n">
-        <v>80.12239843386574</v>
+        <v>80.14829507137732</v>
       </c>
       <c r="X174" t="n">
         <v>23195</v>
@@ -15351,7 +15351,7 @@
         <v>1</v>
       </c>
       <c r="W175" s="3" t="n">
-        <v>80.12239843386574</v>
+        <v>80.14829507137732</v>
       </c>
       <c r="X175" t="n">
         <v>23197</v>
@@ -15436,7 +15436,7 @@
         <v>1</v>
       </c>
       <c r="W176" s="3" t="n">
-        <v>80.12239843386574</v>
+        <v>80.14829507137732</v>
       </c>
       <c r="X176" t="n">
         <v>23199</v>
@@ -15521,7 +15521,7 @@
         <v>1</v>
       </c>
       <c r="W177" s="3" t="n">
-        <v>80.12239843386574</v>
+        <v>80.14829507137732</v>
       </c>
       <c r="X177" t="n">
         <v>23195</v>
@@ -15606,7 +15606,7 @@
         <v>1</v>
       </c>
       <c r="W178" s="3" t="n">
-        <v>80.12239843386574</v>
+        <v>80.14829507137732</v>
       </c>
       <c r="X178" t="n">
         <v>23199</v>
@@ -15691,7 +15691,7 @@
         <v>1</v>
       </c>
       <c r="W179" s="3" t="n">
-        <v>80.12239843386574</v>
+        <v>80.14829507137732</v>
       </c>
       <c r="X179" t="n">
         <v>23198</v>
@@ -15776,7 +15776,7 @@
         <v>1</v>
       </c>
       <c r="W180" s="3" t="n">
-        <v>80.12239843386574</v>
+        <v>80.14829507137732</v>
       </c>
       <c r="X180" t="n">
         <v>23198</v>
@@ -15861,7 +15861,7 @@
         <v>1</v>
       </c>
       <c r="W181" s="3" t="n">
-        <v>80.12239843386574</v>
+        <v>80.14829507137732</v>
       </c>
       <c r="X181" t="n">
         <v>23197</v>
@@ -15946,7 +15946,7 @@
         <v>1</v>
       </c>
       <c r="W182" s="3" t="n">
-        <v>80.9140651005324</v>
+        <v>80.93996173804399</v>
       </c>
       <c r="X182" t="n">
         <v>23196</v>
@@ -16031,7 +16031,7 @@
         <v>1</v>
       </c>
       <c r="W183" s="3" t="n">
-        <v>80.9140651005324</v>
+        <v>80.93996173804399</v>
       </c>
       <c r="X183" t="n">
         <v>23196</v>
@@ -16116,7 +16116,7 @@
         <v>1</v>
       </c>
       <c r="W184" s="3" t="n">
-        <v>86.0390651005324</v>
+        <v>86.06496173804399</v>
       </c>
       <c r="X184" t="n">
         <v>23186</v>
@@ -16201,7 +16201,7 @@
         <v>1</v>
       </c>
       <c r="W185" s="3" t="n">
-        <v>86.0390651005324</v>
+        <v>86.06496173804399</v>
       </c>
       <c r="X185" t="n">
         <v>23186</v>
@@ -16286,7 +16286,7 @@
         <v>1</v>
       </c>
       <c r="W186" s="3" t="n">
-        <v>86.12239843386574</v>
+        <v>86.14829507137732</v>
       </c>
       <c r="X186" t="n">
         <v>23189</v>
@@ -16371,7 +16371,7 @@
         <v>1</v>
       </c>
       <c r="W187" s="3" t="n">
-        <v>86.12239843386574</v>
+        <v>86.14829507137732</v>
       </c>
       <c r="X187" t="n">
         <v>23189</v>
@@ -16456,7 +16456,7 @@
         <v>1</v>
       </c>
       <c r="W188" s="3" t="n">
-        <v>86.99739843386574</v>
+        <v>87.02329507137732</v>
       </c>
       <c r="X188" t="n">
         <v>23182</v>
@@ -16541,7 +16541,7 @@
         <v>1</v>
       </c>
       <c r="W189" s="3" t="n">
-        <v>86.99739843386574</v>
+        <v>87.02329507137732</v>
       </c>
       <c r="X189" t="n">
         <v>23182</v>
@@ -16626,7 +16626,7 @@
         <v>1</v>
       </c>
       <c r="W190" s="3" t="n">
-        <v>87.12239843386574</v>
+        <v>87.14829507137732</v>
       </c>
       <c r="X190" t="n">
         <v>23184</v>
@@ -16711,7 +16711,7 @@
         <v>1</v>
       </c>
       <c r="W191" s="3" t="n">
-        <v>87.12239843386574</v>
+        <v>87.14829507137732</v>
       </c>
       <c r="X191" t="n">
         <v>23183</v>
@@ -16796,7 +16796,7 @@
         <v>1</v>
       </c>
       <c r="W192" s="3" t="n">
-        <v>87.12239843386574</v>
+        <v>87.14829507137732</v>
       </c>
       <c r="X192" t="n">
         <v>23184</v>
@@ -16881,7 +16881,7 @@
         <v>1</v>
       </c>
       <c r="W193" s="3" t="n">
-        <v>87.12239843386574</v>
+        <v>87.14829507137732</v>
       </c>
       <c r="X193" t="n">
         <v>23183</v>
@@ -16966,7 +16966,7 @@
         <v>1</v>
       </c>
       <c r="W194" s="3" t="n">
-        <v>87.12239843386574</v>
+        <v>87.14829507137732</v>
       </c>
       <c r="X194" t="n">
         <v>23185</v>
@@ -17051,7 +17051,7 @@
         <v>1</v>
       </c>
       <c r="W195" s="3" t="n">
-        <v>87.12239843386574</v>
+        <v>87.14829507137732</v>
       </c>
       <c r="X195" t="n">
         <v>23190</v>
@@ -17136,7 +17136,7 @@
         <v>1</v>
       </c>
       <c r="W196" s="3" t="n">
-        <v>87.12239843386574</v>
+        <v>87.14829507137732</v>
       </c>
       <c r="X196" t="n">
         <v>23188</v>
@@ -17221,7 +17221,7 @@
         <v>1</v>
       </c>
       <c r="W197" s="3" t="n">
-        <v>87.12239843386574</v>
+        <v>87.14829507137732</v>
       </c>
       <c r="X197" t="n">
         <v>23190</v>
@@ -17306,7 +17306,7 @@
         <v>1</v>
       </c>
       <c r="W198" s="3" t="n">
-        <v>87.12239843386574</v>
+        <v>87.14829507137732</v>
       </c>
       <c r="X198" t="n">
         <v>23188</v>
@@ -17391,7 +17391,7 @@
         <v>1</v>
       </c>
       <c r="W199" s="3" t="n">
-        <v>87.12239843386574</v>
+        <v>87.14829507137732</v>
       </c>
       <c r="X199" t="n">
         <v>23185</v>
@@ -17476,7 +17476,7 @@
         <v>1</v>
       </c>
       <c r="W200" s="3" t="n">
-        <v>87.9140651005324</v>
+        <v>87.93996173804399</v>
       </c>
       <c r="X200" t="n">
         <v>23187</v>
@@ -17561,7 +17561,7 @@
         <v>1</v>
       </c>
       <c r="W201" s="3" t="n">
-        <v>87.9140651005324</v>
+        <v>87.93996173804399</v>
       </c>
       <c r="X201" t="n">
         <v>23187</v>
@@ -17646,7 +17646,7 @@
         <v>1</v>
       </c>
       <c r="W202" s="3" t="n">
-        <v>92.95573176719907</v>
+        <v>92.98162840471065</v>
       </c>
       <c r="X202" t="n">
         <v>23179</v>
@@ -17731,7 +17731,7 @@
         <v>1</v>
       </c>
       <c r="W203" s="3" t="n">
-        <v>92.95573176719907</v>
+        <v>92.98162840471065</v>
       </c>
       <c r="X203" t="n">
         <v>23179</v>
@@ -17816,7 +17816,7 @@
         <v>1</v>
       </c>
       <c r="W204" s="3" t="n">
-        <v>93.0390651005324</v>
+        <v>93.06496173804399</v>
       </c>
       <c r="X204" t="n">
         <v>23175</v>
@@ -17901,7 +17901,7 @@
         <v>1</v>
       </c>
       <c r="W205" s="3" t="n">
-        <v>93.0390651005324</v>
+        <v>93.06496173804399</v>
       </c>
       <c r="X205" t="n">
         <v>23175</v>
@@ -17986,7 +17986,7 @@
         <v>1</v>
       </c>
       <c r="W206" s="3" t="n">
-        <v>93.12239843386574</v>
+        <v>93.14829507137732</v>
       </c>
       <c r="X206" t="n">
         <v>23176</v>
@@ -18071,7 +18071,7 @@
         <v>1</v>
       </c>
       <c r="W207" s="3" t="n">
-        <v>93.12239843386574</v>
+        <v>93.14829507137732</v>
       </c>
       <c r="X207" t="n">
         <v>23176</v>
@@ -18156,7 +18156,7 @@
         <v>1</v>
       </c>
       <c r="W208" s="3" t="n">
-        <v>93.99739843386574</v>
+        <v>94.02329507137732</v>
       </c>
       <c r="X208" t="n">
         <v>23180</v>
@@ -18241,7 +18241,7 @@
         <v>1</v>
       </c>
       <c r="W209" s="3" t="n">
-        <v>93.99739843386574</v>
+        <v>94.02329507137732</v>
       </c>
       <c r="X209" t="n">
         <v>23180</v>
@@ -18326,7 +18326,7 @@
         <v>1</v>
       </c>
       <c r="W210" s="3" t="n">
-        <v>94.12239843386574</v>
+        <v>94.14829507137732</v>
       </c>
       <c r="X210" t="n">
         <v>23177</v>
@@ -18411,7 +18411,7 @@
         <v>1</v>
       </c>
       <c r="W211" s="3" t="n">
-        <v>94.12239843386574</v>
+        <v>94.14829507137732</v>
       </c>
       <c r="X211" t="n">
         <v>23178</v>
@@ -18496,7 +18496,7 @@
         <v>1</v>
       </c>
       <c r="W212" s="3" t="n">
-        <v>94.12239843386574</v>
+        <v>94.14829507137732</v>
       </c>
       <c r="X212" t="n">
         <v>23178</v>
@@ -18581,7 +18581,7 @@
         <v>1</v>
       </c>
       <c r="W213" s="3" t="n">
-        <v>94.12239843386574</v>
+        <v>94.14829507137732</v>
       </c>
       <c r="X213" t="n">
         <v>23174</v>
@@ -18666,7 +18666,7 @@
         <v>1</v>
       </c>
       <c r="W214" s="3" t="n">
-        <v>94.12239843386574</v>
+        <v>94.14829507137732</v>
       </c>
       <c r="X214" t="n">
         <v>23174</v>
@@ -18751,7 +18751,7 @@
         <v>1</v>
       </c>
       <c r="W215" s="3" t="n">
-        <v>94.12239843386574</v>
+        <v>94.14829507137732</v>
       </c>
       <c r="X215" t="n">
         <v>23177</v>
@@ -18836,7 +18836,7 @@
         <v>1</v>
       </c>
       <c r="W216" s="3" t="n">
-        <v>94.95573176719907</v>
+        <v>94.98162840471065</v>
       </c>
       <c r="X216" t="n">
         <v>23181</v>
@@ -18921,7 +18921,7 @@
         <v>1</v>
       </c>
       <c r="W217" s="3" t="n">
-        <v>94.95573176719907</v>
+        <v>94.98162840471065</v>
       </c>
       <c r="X217" t="n">
         <v>23181</v>
@@ -19006,7 +19006,7 @@
         <v>1</v>
       </c>
       <c r="W218" s="3" t="n">
-        <v>100.0390651005324</v>
+        <v>100.064961738044</v>
       </c>
       <c r="X218" t="n">
         <v>23170</v>
@@ -19091,7 +19091,7 @@
         <v>1</v>
       </c>
       <c r="W219" s="3" t="n">
-        <v>100.0390651005324</v>
+        <v>100.064961738044</v>
       </c>
       <c r="X219" t="n">
         <v>23170</v>
@@ -19176,7 +19176,7 @@
         <v>1</v>
       </c>
       <c r="W220" s="3" t="n">
-        <v>100.1223984338657</v>
+        <v>100.1482950713773</v>
       </c>
       <c r="X220" t="n">
         <v>23172</v>
@@ -19261,7 +19261,7 @@
         <v>1</v>
       </c>
       <c r="W221" s="3" t="n">
-        <v>100.1223984338657</v>
+        <v>100.1482950713773</v>
       </c>
       <c r="X221" t="n">
         <v>23172</v>
@@ -19346,7 +19346,7 @@
         <v>1</v>
       </c>
       <c r="W222" s="3" t="n">
-        <v>100.9973984338657</v>
+        <v>101.0232950713773</v>
       </c>
       <c r="X222" t="n">
         <v>23167</v>
@@ -19431,7 +19431,7 @@
         <v>1</v>
       </c>
       <c r="W223" s="3" t="n">
-        <v>100.9973984338657</v>
+        <v>101.0232950713773</v>
       </c>
       <c r="X223" t="n">
         <v>23167</v>
@@ -19516,7 +19516,7 @@
         <v>1</v>
       </c>
       <c r="W224" s="3" t="n">
-        <v>101.1223984338657</v>
+        <v>101.1482950713773</v>
       </c>
       <c r="X224" t="n">
         <v>23164</v>
@@ -19601,7 +19601,7 @@
         <v>1</v>
       </c>
       <c r="W225" s="3" t="n">
-        <v>101.1223984338657</v>
+        <v>101.1482950713773</v>
       </c>
       <c r="X225" t="n">
         <v>23164</v>
@@ -19686,7 +19686,7 @@
         <v>1</v>
       </c>
       <c r="W226" s="3" t="n">
-        <v>101.1223984338657</v>
+        <v>101.1482950713773</v>
       </c>
       <c r="X226" t="n">
         <v>23165</v>
@@ -19771,7 +19771,7 @@
         <v>1</v>
       </c>
       <c r="W227" s="3" t="n">
-        <v>101.1223984338657</v>
+        <v>101.1482950713773</v>
       </c>
       <c r="X227" t="n">
         <v>23165</v>
@@ -19856,7 +19856,7 @@
         <v>1</v>
       </c>
       <c r="W228" s="3" t="n">
-        <v>101.1223984338657</v>
+        <v>101.1482950713773</v>
       </c>
       <c r="X228" t="n">
         <v>23166</v>
@@ -19941,7 +19941,7 @@
         <v>1</v>
       </c>
       <c r="W229" s="3" t="n">
-        <v>101.1223984338657</v>
+        <v>101.1482950713773</v>
       </c>
       <c r="X229" t="n">
         <v>23166</v>
@@ -20026,7 +20026,7 @@
         <v>1</v>
       </c>
       <c r="W230" s="3" t="n">
-        <v>101.1223984338657</v>
+        <v>101.1482950713773</v>
       </c>
       <c r="X230" t="n">
         <v>23168</v>
@@ -20111,7 +20111,7 @@
         <v>1</v>
       </c>
       <c r="W231" s="3" t="n">
-        <v>101.1223984338657</v>
+        <v>101.1482950713773</v>
       </c>
       <c r="X231" t="n">
         <v>23168</v>
@@ -20196,7 +20196,7 @@
         <v>1</v>
       </c>
       <c r="W232" s="3" t="n">
-        <v>101.1223984338657</v>
+        <v>101.1482950713773</v>
       </c>
       <c r="X232" t="n">
         <v>23171</v>
@@ -20281,7 +20281,7 @@
         <v>1</v>
       </c>
       <c r="W233" s="3" t="n">
-        <v>101.1223984338657</v>
+        <v>101.1482950713773</v>
       </c>
       <c r="X233" t="n">
         <v>23171</v>
@@ -20366,7 +20366,7 @@
         <v>1</v>
       </c>
       <c r="W234" s="3" t="n">
-        <v>101.9140651005324</v>
+        <v>101.939961738044</v>
       </c>
       <c r="X234" t="n">
         <v>23169</v>
@@ -20451,7 +20451,7 @@
         <v>1</v>
       </c>
       <c r="W235" s="3" t="n">
-        <v>101.9140651005324</v>
+        <v>101.939961738044</v>
       </c>
       <c r="X235" t="n">
         <v>23169</v>
@@ -20536,7 +20536,7 @@
         <v>1</v>
       </c>
       <c r="W236" s="3" t="n">
-        <v>113.9140651005324</v>
+        <v>113.939961738044</v>
       </c>
       <c r="X236" t="n">
         <v>23156</v>
@@ -20621,7 +20621,7 @@
         <v>1</v>
       </c>
       <c r="W237" s="3" t="n">
-        <v>113.9140651005324</v>
+        <v>113.939961738044</v>
       </c>
       <c r="X237" t="n">
         <v>23156</v>
@@ -20706,7 +20706,7 @@
         <v>1</v>
       </c>
       <c r="W238" s="3" t="n">
-        <v>114.0390651005324</v>
+        <v>114.064961738044</v>
       </c>
       <c r="X238" t="n">
         <v>23159</v>
@@ -20791,7 +20791,7 @@
         <v>1</v>
       </c>
       <c r="W239" s="3" t="n">
-        <v>114.0390651005324</v>
+        <v>114.064961738044</v>
       </c>
       <c r="X239" t="n">
         <v>23159</v>
@@ -20876,7 +20876,7 @@
         <v>1</v>
       </c>
       <c r="W240" s="3" t="n">
-        <v>114.1223984338657</v>
+        <v>114.1482950713773</v>
       </c>
       <c r="X240" t="n">
         <v>23157</v>
@@ -20961,7 +20961,7 @@
         <v>1</v>
       </c>
       <c r="W241" s="3" t="n">
-        <v>114.1223984338657</v>
+        <v>114.1482950713773</v>
       </c>
       <c r="X241" t="n">
         <v>23157</v>
@@ -21046,7 +21046,7 @@
         <v>1</v>
       </c>
       <c r="W242" s="3" t="n">
-        <v>114.9973984338657</v>
+        <v>115.0232950713773</v>
       </c>
       <c r="X242" t="n">
         <v>23160</v>
@@ -21131,7 +21131,7 @@
         <v>1</v>
       </c>
       <c r="W243" s="3" t="n">
-        <v>114.9973984338657</v>
+        <v>115.0232950713773</v>
       </c>
       <c r="X243" t="n">
         <v>23160</v>
@@ -21216,7 +21216,7 @@
         <v>1</v>
       </c>
       <c r="W244" s="3" t="n">
-        <v>115.1223984338657</v>
+        <v>115.1482950713773</v>
       </c>
       <c r="X244" t="n">
         <v>23155</v>
@@ -21301,7 +21301,7 @@
         <v>1</v>
       </c>
       <c r="W245" s="3" t="n">
-        <v>115.1223984338657</v>
+        <v>115.1482950713773</v>
       </c>
       <c r="X245" t="n">
         <v>23155</v>
@@ -21386,7 +21386,7 @@
         <v>1</v>
       </c>
       <c r="W246" s="3" t="n">
-        <v>115.1223984338657</v>
+        <v>115.1482950713773</v>
       </c>
       <c r="X246" t="n">
         <v>23163</v>
@@ -21471,7 +21471,7 @@
         <v>1</v>
       </c>
       <c r="W247" s="3" t="n">
-        <v>115.1223984338657</v>
+        <v>115.1482950713773</v>
       </c>
       <c r="X247" t="n">
         <v>23161</v>
@@ -21556,7 +21556,7 @@
         <v>1</v>
       </c>
       <c r="W248" s="3" t="n">
-        <v>115.1223984338657</v>
+        <v>115.1482950713773</v>
       </c>
       <c r="X248" t="n">
         <v>23161</v>
@@ -21641,7 +21641,7 @@
         <v>1</v>
       </c>
       <c r="W249" s="3" t="n">
-        <v>115.1223984338657</v>
+        <v>115.1482950713773</v>
       </c>
       <c r="X249" t="n">
         <v>23162</v>
@@ -21726,7 +21726,7 @@
         <v>1</v>
       </c>
       <c r="W250" s="3" t="n">
-        <v>115.1223984338657</v>
+        <v>115.1482950713773</v>
       </c>
       <c r="X250" t="n">
         <v>23162</v>
@@ -21811,7 +21811,7 @@
         <v>1</v>
       </c>
       <c r="W251" s="3" t="n">
-        <v>115.1223984338657</v>
+        <v>115.1482950713773</v>
       </c>
       <c r="X251" t="n">
         <v>23163</v>
@@ -21896,7 +21896,7 @@
         <v>1</v>
       </c>
       <c r="W252" s="3" t="n">
-        <v>115.9140651005324</v>
+        <v>115.939961738044</v>
       </c>
       <c r="X252" t="n">
         <v>23158</v>
@@ -21981,7 +21981,7 @@
         <v>1</v>
       </c>
       <c r="W253" s="3" t="n">
-        <v>115.9140651005324</v>
+        <v>115.939961738044</v>
       </c>
       <c r="X253" t="n">
         <v>23158</v>
@@ -22066,7 +22066,7 @@
         <v>1</v>
       </c>
       <c r="W254" s="3" t="n">
-        <v>121.0390651005324</v>
+        <v>121.064961738044</v>
       </c>
       <c r="X254" t="n">
         <v>23153</v>
@@ -22151,7 +22151,7 @@
         <v>1</v>
       </c>
       <c r="W255" s="3" t="n">
-        <v>121.0390651005324</v>
+        <v>121.064961738044</v>
       </c>
       <c r="X255" t="n">
         <v>23153</v>
@@ -22236,7 +22236,7 @@
         <v>1</v>
       </c>
       <c r="W256" s="3" t="n">
-        <v>121.1223984338657</v>
+        <v>121.1482950713773</v>
       </c>
       <c r="X256" t="n">
         <v>23149</v>
@@ -22321,7 +22321,7 @@
         <v>1</v>
       </c>
       <c r="W257" s="3" t="n">
-        <v>121.1223984338657</v>
+        <v>121.1482950713773</v>
       </c>
       <c r="X257" t="n">
         <v>23149</v>
@@ -22406,7 +22406,7 @@
         <v>1</v>
       </c>
       <c r="W258" s="3" t="n">
-        <v>121.9973984338657</v>
+        <v>122.0232950713773</v>
       </c>
       <c r="X258" t="n">
         <v>23146</v>
@@ -22491,7 +22491,7 @@
         <v>1</v>
       </c>
       <c r="W259" s="3" t="n">
-        <v>121.9973984338657</v>
+        <v>122.0232950713773</v>
       </c>
       <c r="X259" t="n">
         <v>23146</v>
@@ -22576,7 +22576,7 @@
         <v>1</v>
       </c>
       <c r="W260" s="3" t="n">
-        <v>122.1223984338657</v>
+        <v>122.1482950713773</v>
       </c>
       <c r="X260" t="n">
         <v>23147</v>
@@ -22661,7 +22661,7 @@
         <v>1</v>
       </c>
       <c r="W261" s="3" t="n">
-        <v>122.1223984338657</v>
+        <v>122.1482950713773</v>
       </c>
       <c r="X261" t="n">
         <v>23148</v>
@@ -22746,7 +22746,7 @@
         <v>1</v>
       </c>
       <c r="W262" s="3" t="n">
-        <v>122.1223984338657</v>
+        <v>122.1482950713773</v>
       </c>
       <c r="X262" t="n">
         <v>23148</v>
@@ -22831,7 +22831,7 @@
         <v>1</v>
       </c>
       <c r="W263" s="3" t="n">
-        <v>122.1223984338657</v>
+        <v>122.1482950713773</v>
       </c>
       <c r="X263" t="n">
         <v>23147</v>
@@ -22916,7 +22916,7 @@
         <v>1</v>
       </c>
       <c r="W264" s="3" t="n">
-        <v>122.1223984338657</v>
+        <v>122.1482950713773</v>
       </c>
       <c r="X264" t="n">
         <v>23150</v>
@@ -23001,7 +23001,7 @@
         <v>1</v>
       </c>
       <c r="W265" s="3" t="n">
-        <v>122.1223984338657</v>
+        <v>122.1482950713773</v>
       </c>
       <c r="X265" t="n">
         <v>23151</v>
@@ -23086,7 +23086,7 @@
         <v>1</v>
       </c>
       <c r="W266" s="3" t="n">
-        <v>122.1223984338657</v>
+        <v>122.1482950713773</v>
       </c>
       <c r="X266" t="n">
         <v>23151</v>
@@ -23171,7 +23171,7 @@
         <v>1</v>
       </c>
       <c r="W267" s="3" t="n">
-        <v>122.1223984338657</v>
+        <v>122.1482950713773</v>
       </c>
       <c r="X267" t="n">
         <v>23152</v>
@@ -23256,7 +23256,7 @@
         <v>1</v>
       </c>
       <c r="W268" s="3" t="n">
-        <v>122.1223984338657</v>
+        <v>122.1482950713773</v>
       </c>
       <c r="X268" t="n">
         <v>23152</v>
@@ -23341,7 +23341,7 @@
         <v>1</v>
       </c>
       <c r="W269" s="3" t="n">
-        <v>122.1223984338657</v>
+        <v>122.1482950713773</v>
       </c>
       <c r="X269" t="n">
         <v>23150</v>
@@ -23426,7 +23426,7 @@
         <v>1</v>
       </c>
       <c r="W270" s="3" t="n">
-        <v>122.9140651005324</v>
+        <v>122.939961738044</v>
       </c>
       <c r="X270" t="n">
         <v>23154</v>
@@ -23511,7 +23511,7 @@
         <v>1</v>
       </c>
       <c r="W271" s="3" t="n">
-        <v>122.9140651005324</v>
+        <v>122.939961738044</v>
       </c>
       <c r="X271" t="n">
         <v>23154</v>
@@ -23596,7 +23596,7 @@
         <v>1</v>
       </c>
       <c r="W272" s="3" t="n">
-        <v>128.0390651005324</v>
+        <v>128.064961738044</v>
       </c>
       <c r="X272" t="n">
         <v>23139</v>
@@ -23681,7 +23681,7 @@
         <v>1</v>
       </c>
       <c r="W273" s="3" t="n">
-        <v>128.0390651005324</v>
+        <v>128.064961738044</v>
       </c>
       <c r="X273" t="n">
         <v>23139</v>
@@ -23766,7 +23766,7 @@
         <v>1</v>
       </c>
       <c r="W274" s="3" t="n">
-        <v>128.1223984338658</v>
+        <v>128.1482950713773</v>
       </c>
       <c r="X274" t="n">
         <v>23140</v>
@@ -23851,7 +23851,7 @@
         <v>1</v>
       </c>
       <c r="W275" s="3" t="n">
-        <v>128.1223984338658</v>
+        <v>128.1482950713773</v>
       </c>
       <c r="X275" t="n">
         <v>23140</v>
@@ -23936,7 +23936,7 @@
         <v>1</v>
       </c>
       <c r="W276" s="3" t="n">
-        <v>129.0390651005324</v>
+        <v>129.064961738044</v>
       </c>
       <c r="X276" t="n">
         <v>23138</v>
@@ -24021,7 +24021,7 @@
         <v>1</v>
       </c>
       <c r="W277" s="3" t="n">
-        <v>129.0390651005324</v>
+        <v>129.064961738044</v>
       </c>
       <c r="X277" t="n">
         <v>23138</v>
@@ -24106,7 +24106,7 @@
         <v>1</v>
       </c>
       <c r="W278" s="3" t="n">
-        <v>129.1640651005324</v>
+        <v>129.189961738044</v>
       </c>
       <c r="X278" t="n">
         <v>23142</v>
@@ -24191,7 +24191,7 @@
         <v>1</v>
       </c>
       <c r="W279" s="3" t="n">
-        <v>129.1640651005324</v>
+        <v>129.189961738044</v>
       </c>
       <c r="X279" t="n">
         <v>23137</v>
@@ -24276,7 +24276,7 @@
         <v>1</v>
       </c>
       <c r="W280" s="3" t="n">
-        <v>129.1640651005324</v>
+        <v>129.189961738044</v>
       </c>
       <c r="X280" t="n">
         <v>23141</v>
@@ -24361,7 +24361,7 @@
         <v>1</v>
       </c>
       <c r="W281" s="3" t="n">
-        <v>129.1640651005324</v>
+        <v>129.189961738044</v>
       </c>
       <c r="X281" t="n">
         <v>23141</v>
@@ -24446,7 +24446,7 @@
         <v>1</v>
       </c>
       <c r="W282" s="3" t="n">
-        <v>129.1640651005324</v>
+        <v>129.189961738044</v>
       </c>
       <c r="X282" t="n">
         <v>23142</v>
@@ -24531,7 +24531,7 @@
         <v>1</v>
       </c>
       <c r="W283" s="3" t="n">
-        <v>129.1640651005324</v>
+        <v>129.189961738044</v>
       </c>
       <c r="X283" t="n">
         <v>23144</v>
@@ -24616,7 +24616,7 @@
         <v>1</v>
       </c>
       <c r="W284" s="3" t="n">
-        <v>129.1640651005324</v>
+        <v>129.189961738044</v>
       </c>
       <c r="X284" t="n">
         <v>23144</v>
@@ -24701,7 +24701,7 @@
         <v>1</v>
       </c>
       <c r="W285" s="3" t="n">
-        <v>129.1640651005324</v>
+        <v>129.189961738044</v>
       </c>
       <c r="X285" t="n">
         <v>23145</v>
@@ -24786,7 +24786,7 @@
         <v>1</v>
       </c>
       <c r="W286" s="3" t="n">
-        <v>129.1640651005324</v>
+        <v>129.189961738044</v>
       </c>
       <c r="X286" t="n">
         <v>23145</v>
@@ -24871,7 +24871,7 @@
         <v>1</v>
       </c>
       <c r="W287" s="3" t="n">
-        <v>129.1640651005324</v>
+        <v>129.189961738044</v>
       </c>
       <c r="X287" t="n">
         <v>23137</v>
@@ -24956,7 +24956,7 @@
         <v>1</v>
       </c>
       <c r="W288" s="3" t="n">
-        <v>129.9557317671991</v>
+        <v>129.9816284047106</v>
       </c>
       <c r="X288" t="n">
         <v>23143</v>
@@ -25041,7 +25041,7 @@
         <v>1</v>
       </c>
       <c r="W289" s="3" t="n">
-        <v>129.9557317671991</v>
+        <v>129.9816284047106</v>
       </c>
       <c r="X289" t="n">
         <v>23143</v>
@@ -25126,7 +25126,7 @@
         <v>1</v>
       </c>
       <c r="W290" s="3" t="n">
-        <v>135.0807317671991</v>
+        <v>135.1066284047106</v>
       </c>
       <c r="X290" t="n">
         <v>23136</v>
@@ -25211,7 +25211,7 @@
         <v>1</v>
       </c>
       <c r="W291" s="3" t="n">
-        <v>135.0807317671991</v>
+        <v>135.1066284047106</v>
       </c>
       <c r="X291" t="n">
         <v>23136</v>
@@ -25296,7 +25296,7 @@
         <v>1</v>
       </c>
       <c r="W292" s="3" t="n">
-        <v>135.1640651005324</v>
+        <v>135.189961738044</v>
       </c>
       <c r="X292" t="n">
         <v>23135</v>
@@ -25381,7 +25381,7 @@
         <v>1</v>
       </c>
       <c r="W293" s="3" t="n">
-        <v>135.1640651005324</v>
+        <v>135.189961738044</v>
       </c>
       <c r="X293" t="n">
         <v>23135</v>
@@ -25466,7 +25466,7 @@
         <v>1</v>
       </c>
       <c r="W294" s="3" t="n">
-        <v>136.0390651005324</v>
+        <v>136.064961738044</v>
       </c>
       <c r="X294" t="n">
         <v>23134</v>
@@ -25551,7 +25551,7 @@
         <v>1</v>
       </c>
       <c r="W295" s="3" t="n">
-        <v>136.0390651005324</v>
+        <v>136.064961738044</v>
       </c>
       <c r="X295" t="n">
         <v>23134</v>
@@ -25636,7 +25636,7 @@
         <v>1</v>
       </c>
       <c r="W296" s="3" t="n">
-        <v>136.1640651005324</v>
+        <v>136.189961738044</v>
       </c>
       <c r="X296" t="n">
         <v>23131</v>
@@ -25721,7 +25721,7 @@
         <v>1</v>
       </c>
       <c r="W297" s="3" t="n">
-        <v>136.1640651005324</v>
+        <v>136.189961738044</v>
       </c>
       <c r="X297" t="n">
         <v>23129</v>
@@ -25806,7 +25806,7 @@
         <v>1</v>
       </c>
       <c r="W298" s="3" t="n">
-        <v>136.1640651005324</v>
+        <v>136.189961738044</v>
       </c>
       <c r="X298" t="n">
         <v>23129</v>
@@ -25891,7 +25891,7 @@
         <v>1</v>
       </c>
       <c r="W299" s="3" t="n">
-        <v>136.1640651005324</v>
+        <v>136.189961738044</v>
       </c>
       <c r="X299" t="n">
         <v>23130</v>
@@ -25976,7 +25976,7 @@
         <v>1</v>
       </c>
       <c r="W300" s="3" t="n">
-        <v>136.1640651005324</v>
+        <v>136.189961738044</v>
       </c>
       <c r="X300" t="n">
         <v>23130</v>
@@ -26061,7 +26061,7 @@
         <v>1</v>
       </c>
       <c r="W301" s="3" t="n">
-        <v>136.1640651005324</v>
+        <v>136.189961738044</v>
       </c>
       <c r="X301" t="n">
         <v>23132</v>
@@ -26146,7 +26146,7 @@
         <v>1</v>
       </c>
       <c r="W302" s="3" t="n">
-        <v>136.1640651005324</v>
+        <v>136.189961738044</v>
       </c>
       <c r="X302" t="n">
         <v>23131</v>
@@ -26231,7 +26231,7 @@
         <v>1</v>
       </c>
       <c r="W303" s="3" t="n">
-        <v>136.1640651005324</v>
+        <v>136.189961738044</v>
       </c>
       <c r="X303" t="n">
         <v>23132</v>
@@ -26316,7 +26316,7 @@
         <v>1</v>
       </c>
       <c r="W304" s="3" t="n">
-        <v>136.1640651005324</v>
+        <v>136.189961738044</v>
       </c>
       <c r="X304" t="n">
         <v>23133</v>
@@ -26401,7 +26401,7 @@
         <v>1</v>
       </c>
       <c r="W305" s="3" t="n">
-        <v>136.1640651005324</v>
+        <v>136.189961738044</v>
       </c>
       <c r="X305" t="n">
         <v>23133</v>
@@ -26486,7 +26486,7 @@
         <v>1</v>
       </c>
       <c r="W306" s="3" t="n">
-        <v>136.9557317671991</v>
+        <v>136.9816284047106</v>
       </c>
       <c r="X306" t="n">
         <v>23128</v>
@@ -26571,7 +26571,7 @@
         <v>1</v>
       </c>
       <c r="W307" s="3" t="n">
-        <v>136.9557317671991</v>
+        <v>136.9816284047106</v>
       </c>
       <c r="X307" t="n">
         <v>23128</v>
@@ -26656,7 +26656,7 @@
         <v>1</v>
       </c>
       <c r="W308" s="3" t="n">
-        <v>148.9973984338658</v>
+        <v>149.0232950713773</v>
       </c>
       <c r="X308" t="n">
         <v>23127</v>
@@ -26741,7 +26741,7 @@
         <v>1</v>
       </c>
       <c r="W309" s="3" t="n">
-        <v>148.9973984338658</v>
+        <v>149.0232950713773</v>
       </c>
       <c r="X309" t="n">
         <v>23127</v>
@@ -26826,7 +26826,7 @@
         <v>1</v>
       </c>
       <c r="W310" s="3" t="n">
-        <v>149.0807317671991</v>
+        <v>149.1066284047106</v>
       </c>
       <c r="X310" t="n">
         <v>23126</v>
@@ -26911,7 +26911,7 @@
         <v>1</v>
       </c>
       <c r="W311" s="3" t="n">
-        <v>149.0807317671991</v>
+        <v>149.1066284047106</v>
       </c>
       <c r="X311" t="n">
         <v>23126</v>
@@ -26996,7 +26996,7 @@
         <v>1</v>
       </c>
       <c r="W312" s="3" t="n">
-        <v>149.1640651005324</v>
+        <v>149.189961738044</v>
       </c>
       <c r="X312" t="n">
         <v>23125</v>
@@ -27081,7 +27081,7 @@
         <v>1</v>
       </c>
       <c r="W313" s="3" t="n">
-        <v>149.1640651005324</v>
+        <v>149.189961738044</v>
       </c>
       <c r="X313" t="n">
         <v>23125</v>
@@ -27166,7 +27166,7 @@
         <v>1</v>
       </c>
       <c r="W314" s="3" t="n">
-        <v>150.0390651005324</v>
+        <v>150.064961738044</v>
       </c>
       <c r="X314" t="n">
         <v>23124</v>
@@ -27251,7 +27251,7 @@
         <v>1</v>
       </c>
       <c r="W315" s="3" t="n">
-        <v>150.0390651005324</v>
+        <v>150.064961738044</v>
       </c>
       <c r="X315" t="n">
         <v>23124</v>
@@ -27336,7 +27336,7 @@
         <v>1</v>
       </c>
       <c r="W316" s="3" t="n">
-        <v>150.1640651005324</v>
+        <v>150.189961738044</v>
       </c>
       <c r="X316" t="n">
         <v>23123</v>
@@ -27421,7 +27421,7 @@
         <v>1</v>
       </c>
       <c r="W317" s="3" t="n">
-        <v>150.1640651005324</v>
+        <v>150.189961738044</v>
       </c>
       <c r="X317" t="n">
         <v>23123</v>
@@ -27506,7 +27506,7 @@
         <v>1</v>
       </c>
       <c r="W318" s="3" t="n">
-        <v>150.1640651005324</v>
+        <v>150.189961738044</v>
       </c>
       <c r="X318" t="n">
         <v>23122</v>
@@ -27591,7 +27591,7 @@
         <v>1</v>
       </c>
       <c r="W319" s="3" t="n">
-        <v>150.1640651005324</v>
+        <v>150.189961738044</v>
       </c>
       <c r="X319" t="n">
         <v>23122</v>
@@ -27676,7 +27676,7 @@
         <v>1</v>
       </c>
       <c r="W320" s="3" t="n">
-        <v>150.1640651005324</v>
+        <v>150.189961738044</v>
       </c>
       <c r="X320" t="n">
         <v>23121</v>
@@ -27761,7 +27761,7 @@
         <v>1</v>
       </c>
       <c r="W321" s="3" t="n">
-        <v>150.1640651005324</v>
+        <v>150.189961738044</v>
       </c>
       <c r="X321" t="n">
         <v>23121</v>
@@ -27846,7 +27846,7 @@
         <v>1</v>
       </c>
       <c r="W322" s="3" t="n">
-        <v>150.1640651005324</v>
+        <v>150.189961738044</v>
       </c>
       <c r="X322" t="n">
         <v>23120</v>
@@ -27931,7 +27931,7 @@
         <v>1</v>
       </c>
       <c r="W323" s="3" t="n">
-        <v>150.1640651005324</v>
+        <v>150.189961738044</v>
       </c>
       <c r="X323" t="n">
         <v>23120</v>
@@ -28016,7 +28016,7 @@
         <v>1</v>
       </c>
       <c r="W324" s="3" t="n">
-        <v>150.9557317671991</v>
+        <v>150.9816284047106</v>
       </c>
       <c r="X324" t="n">
         <v>23119</v>
@@ -28101,7 +28101,7 @@
         <v>1</v>
       </c>
       <c r="W325" s="3" t="n">
-        <v>150.9557317671991</v>
+        <v>150.9816284047106</v>
       </c>
       <c r="X325" t="n">
         <v>23119</v>
@@ -28186,7 +28186,7 @@
         <v>1</v>
       </c>
       <c r="W326" s="3" t="n">
-        <v>156.0807317671991</v>
+        <v>156.1066284047106</v>
       </c>
       <c r="X326" t="n">
         <v>23118</v>
@@ -28271,7 +28271,7 @@
         <v>1</v>
       </c>
       <c r="W327" s="3" t="n">
-        <v>156.0807317671991</v>
+        <v>156.1066284047106</v>
       </c>
       <c r="X327" t="n">
         <v>23118</v>
@@ -28356,7 +28356,7 @@
         <v>1</v>
       </c>
       <c r="W328" s="3" t="n">
-        <v>156.1640651005324</v>
+        <v>156.189961738044</v>
       </c>
       <c r="X328" t="n">
         <v>23117</v>
@@ -28441,7 +28441,7 @@
         <v>1</v>
       </c>
       <c r="W329" s="3" t="n">
-        <v>156.1640651005324</v>
+        <v>156.189961738044</v>
       </c>
       <c r="X329" t="n">
         <v>23117</v>
@@ -28526,7 +28526,7 @@
         <v>1</v>
       </c>
       <c r="W330" s="3" t="n">
-        <v>157.0390651005324</v>
+        <v>157.064961738044</v>
       </c>
       <c r="X330" t="n">
         <v>23116</v>
@@ -28611,7 +28611,7 @@
         <v>1</v>
       </c>
       <c r="W331" s="3" t="n">
-        <v>157.0390651005324</v>
+        <v>157.064961738044</v>
       </c>
       <c r="X331" t="n">
         <v>23116</v>
@@ -28696,7 +28696,7 @@
         <v>1</v>
       </c>
       <c r="W332" s="3" t="n">
-        <v>157.1640651005324</v>
+        <v>157.189961738044</v>
       </c>
       <c r="X332" t="n">
         <v>23113</v>
@@ -28781,7 +28781,7 @@
         <v>1</v>
       </c>
       <c r="W333" s="3" t="n">
-        <v>157.1640651005324</v>
+        <v>157.189961738044</v>
       </c>
       <c r="X333" t="n">
         <v>23111</v>
@@ -28866,7 +28866,7 @@
         <v>1</v>
       </c>
       <c r="W334" s="3" t="n">
-        <v>157.1640651005324</v>
+        <v>157.189961738044</v>
       </c>
       <c r="X334" t="n">
         <v>23111</v>
@@ -28951,7 +28951,7 @@
         <v>1</v>
       </c>
       <c r="W335" s="3" t="n">
-        <v>157.1640651005324</v>
+        <v>157.189961738044</v>
       </c>
       <c r="X335" t="n">
         <v>23112</v>
@@ -29036,7 +29036,7 @@
         <v>1</v>
       </c>
       <c r="W336" s="3" t="n">
-        <v>157.1640651005324</v>
+        <v>157.189961738044</v>
       </c>
       <c r="X336" t="n">
         <v>23112</v>
@@ -29121,7 +29121,7 @@
         <v>1</v>
       </c>
       <c r="W337" s="3" t="n">
-        <v>157.1640651005324</v>
+        <v>157.189961738044</v>
       </c>
       <c r="X337" t="n">
         <v>23113</v>
@@ -29206,7 +29206,7 @@
         <v>1</v>
       </c>
       <c r="W338" s="3" t="n">
-        <v>157.1640651005324</v>
+        <v>157.189961738044</v>
       </c>
       <c r="X338" t="n">
         <v>23114</v>
@@ -29291,7 +29291,7 @@
         <v>1</v>
       </c>
       <c r="W339" s="3" t="n">
-        <v>157.1640651005324</v>
+        <v>157.189961738044</v>
       </c>
       <c r="X339" t="n">
         <v>23114</v>
@@ -29376,7 +29376,7 @@
         <v>1</v>
       </c>
       <c r="W340" s="3" t="n">
-        <v>157.1640651005324</v>
+        <v>157.189961738044</v>
       </c>
       <c r="X340" t="n">
         <v>23115</v>
@@ -29461,7 +29461,7 @@
         <v>1</v>
       </c>
       <c r="W341" s="3" t="n">
-        <v>157.1640651005324</v>
+        <v>157.189961738044</v>
       </c>
       <c r="X341" t="n">
         <v>23115</v>
@@ -29546,7 +29546,7 @@
         <v>1</v>
       </c>
       <c r="W342" s="3" t="n">
-        <v>157.9557317671991</v>
+        <v>157.9816284047106</v>
       </c>
       <c r="X342" t="n">
         <v>23110</v>
@@ -29631,7 +29631,7 @@
         <v>1</v>
       </c>
       <c r="W343" s="3" t="n">
-        <v>157.9557317671991</v>
+        <v>157.9816284047106</v>
       </c>
       <c r="X343" t="n">
         <v>23110</v>
@@ -29716,7 +29716,7 @@
         <v>1</v>
       </c>
       <c r="W344" s="3" t="n">
-        <v>163.0807317671991</v>
+        <v>163.1066284047106</v>
       </c>
       <c r="X344" t="n">
         <v>23109</v>
@@ -29801,7 +29801,7 @@
         <v>1</v>
       </c>
       <c r="W345" s="3" t="n">
-        <v>163.0807317671991</v>
+        <v>163.1066284047106</v>
       </c>
       <c r="X345" t="n">
         <v>23109</v>
@@ -29886,7 +29886,7 @@
         <v>1</v>
       </c>
       <c r="W346" s="3" t="n">
-        <v>163.1640651005324</v>
+        <v>163.189961738044</v>
       </c>
       <c r="X346" t="n">
         <v>23108</v>
@@ -29971,7 +29971,7 @@
         <v>1</v>
       </c>
       <c r="W347" s="3" t="n">
-        <v>163.1640651005324</v>
+        <v>163.189961738044</v>
       </c>
       <c r="X347" t="n">
         <v>23108</v>
@@ -30056,7 +30056,7 @@
         <v>1</v>
       </c>
       <c r="W348" s="3" t="n">
-        <v>164.0390651005324</v>
+        <v>164.064961738044</v>
       </c>
       <c r="X348" t="n">
         <v>23107</v>
@@ -30141,7 +30141,7 @@
         <v>1</v>
       </c>
       <c r="W349" s="3" t="n">
-        <v>164.0390651005324</v>
+        <v>164.064961738044</v>
       </c>
       <c r="X349" t="n">
         <v>23107</v>
@@ -30226,7 +30226,7 @@
         <v>1</v>
       </c>
       <c r="W350" s="3" t="n">
-        <v>164.1640651005324</v>
+        <v>164.189961738044</v>
       </c>
       <c r="X350" t="n">
         <v>23106</v>
@@ -30311,7 +30311,7 @@
         <v>1</v>
       </c>
       <c r="W351" s="3" t="n">
-        <v>164.1640651005324</v>
+        <v>164.189961738044</v>
       </c>
       <c r="X351" t="n">
         <v>23106</v>
@@ -30396,7 +30396,7 @@
         <v>1</v>
       </c>
       <c r="W352" s="3" t="n">
-        <v>164.1640651005324</v>
+        <v>164.189961738044</v>
       </c>
       <c r="X352" t="n">
         <v>23105</v>
@@ -30481,7 +30481,7 @@
         <v>1</v>
       </c>
       <c r="W353" s="3" t="n">
-        <v>164.1640651005324</v>
+        <v>164.189961738044</v>
       </c>
       <c r="X353" t="n">
         <v>23105</v>
@@ -30566,7 +30566,7 @@
         <v>1</v>
       </c>
       <c r="W354" s="3" t="n">
-        <v>164.1640651005324</v>
+        <v>164.189961738044</v>
       </c>
       <c r="X354" t="n">
         <v>23104</v>
@@ -30651,7 +30651,7 @@
         <v>1</v>
       </c>
       <c r="W355" s="3" t="n">
-        <v>164.1640651005324</v>
+        <v>164.189961738044</v>
       </c>
       <c r="X355" t="n">
         <v>23104</v>
@@ -30736,7 +30736,7 @@
         <v>1</v>
       </c>
       <c r="W356" s="3" t="n">
-        <v>164.1640651005324</v>
+        <v>164.189961738044</v>
       </c>
       <c r="X356" t="n">
         <v>23103</v>
@@ -30821,7 +30821,7 @@
         <v>1</v>
       </c>
       <c r="W357" s="3" t="n">
-        <v>164.1640651005324</v>
+        <v>164.189961738044</v>
       </c>
       <c r="X357" t="n">
         <v>23103</v>
@@ -30906,7 +30906,7 @@
         <v>1</v>
       </c>
       <c r="W358" s="3" t="n">
-        <v>164.1640651005324</v>
+        <v>164.189961738044</v>
       </c>
       <c r="X358" t="n">
         <v>23102</v>
@@ -30991,7 +30991,7 @@
         <v>1</v>
       </c>
       <c r="W359" s="3" t="n">
-        <v>164.1640651005324</v>
+        <v>164.189961738044</v>
       </c>
       <c r="X359" t="n">
         <v>23102</v>
@@ -31076,7 +31076,7 @@
         <v>1</v>
       </c>
       <c r="W360" s="3" t="n">
-        <v>164.9557317671991</v>
+        <v>164.9816284047106</v>
       </c>
       <c r="X360" t="n">
         <v>23101</v>
@@ -31161,7 +31161,7 @@
         <v>1</v>
       </c>
       <c r="W361" s="3" t="n">
-        <v>164.9557317671991</v>
+        <v>164.9816284047106</v>
       </c>
       <c r="X361" t="n">
         <v>23101</v>
@@ -31246,7 +31246,7 @@
         <v>1</v>
       </c>
       <c r="W362" s="3" t="n">
-        <v>170.0807317671991</v>
+        <v>170.1066284047106</v>
       </c>
       <c r="X362" t="n">
         <v>23100</v>
@@ -31331,7 +31331,7 @@
         <v>1</v>
       </c>
       <c r="W363" s="3" t="n">
-        <v>170.0807317671991</v>
+        <v>170.1066284047106</v>
       </c>
       <c r="X363" t="n">
         <v>23100</v>
@@ -31416,7 +31416,7 @@
         <v>1</v>
       </c>
       <c r="W364" s="3" t="n">
-        <v>170.1640651005324</v>
+        <v>170.189961738044</v>
       </c>
       <c r="X364" t="n">
         <v>23099</v>
@@ -31501,7 +31501,7 @@
         <v>1</v>
       </c>
       <c r="W365" s="3" t="n">
-        <v>170.1640651005324</v>
+        <v>170.189961738044</v>
       </c>
       <c r="X365" t="n">
         <v>23099</v>
@@ -31586,7 +31586,7 @@
         <v>1</v>
       </c>
       <c r="W366" s="3" t="n">
-        <v>171.0390651005324</v>
+        <v>171.064961738044</v>
       </c>
       <c r="X366" t="n">
         <v>23098</v>
@@ -31671,7 +31671,7 @@
         <v>1</v>
       </c>
       <c r="W367" s="3" t="n">
-        <v>171.0390651005324</v>
+        <v>171.064961738044</v>
       </c>
       <c r="X367" t="n">
         <v>23098</v>
@@ -31756,7 +31756,7 @@
         <v>1</v>
       </c>
       <c r="W368" s="3" t="n">
-        <v>171.1640651005324</v>
+        <v>171.189961738044</v>
       </c>
       <c r="X368" t="n">
         <v>23093</v>
@@ -31841,7 +31841,7 @@
         <v>1</v>
       </c>
       <c r="W369" s="3" t="n">
-        <v>171.1640651005324</v>
+        <v>171.189961738044</v>
       </c>
       <c r="X369" t="n">
         <v>23093</v>
@@ -31926,7 +31926,7 @@
         <v>1</v>
       </c>
       <c r="W370" s="3" t="n">
-        <v>171.1640651005324</v>
+        <v>171.189961738044</v>
       </c>
       <c r="X370" t="n">
         <v>23094</v>
@@ -32011,7 +32011,7 @@
         <v>1</v>
       </c>
       <c r="W371" s="3" t="n">
-        <v>171.1640651005324</v>
+        <v>171.189961738044</v>
       </c>
       <c r="X371" t="n">
         <v>23094</v>
@@ -32096,7 +32096,7 @@
         <v>1</v>
       </c>
       <c r="W372" s="3" t="n">
-        <v>171.1640651005324</v>
+        <v>171.189961738044</v>
       </c>
       <c r="X372" t="n">
         <v>23095</v>
@@ -32181,7 +32181,7 @@
         <v>1</v>
       </c>
       <c r="W373" s="3" t="n">
-        <v>171.1640651005324</v>
+        <v>171.189961738044</v>
       </c>
       <c r="X373" t="n">
         <v>23095</v>
@@ -32266,7 +32266,7 @@
         <v>1</v>
       </c>
       <c r="W374" s="3" t="n">
-        <v>171.1640651005324</v>
+        <v>171.189961738044</v>
       </c>
       <c r="X374" t="n">
         <v>23096</v>
@@ -32351,7 +32351,7 @@
         <v>1</v>
       </c>
       <c r="W375" s="3" t="n">
-        <v>171.1640651005324</v>
+        <v>171.189961738044</v>
       </c>
       <c r="X375" t="n">
         <v>23096</v>
@@ -32436,7 +32436,7 @@
         <v>1</v>
       </c>
       <c r="W376" s="3" t="n">
-        <v>171.1640651005324</v>
+        <v>171.189961738044</v>
       </c>
       <c r="X376" t="n">
         <v>23097</v>
@@ -32521,7 +32521,7 @@
         <v>1</v>
       </c>
       <c r="W377" s="3" t="n">
-        <v>171.1640651005324</v>
+        <v>171.189961738044</v>
       </c>
       <c r="X377" t="n">
         <v>23097</v>
@@ -32606,7 +32606,7 @@
         <v>1</v>
       </c>
       <c r="W378" s="3" t="n">
-        <v>171.9557317671991</v>
+        <v>171.9816284047106</v>
       </c>
       <c r="X378" t="n">
         <v>23092</v>
@@ -32691,7 +32691,7 @@
         <v>1</v>
       </c>
       <c r="W379" s="3" t="n">
-        <v>171.9557317671991</v>
+        <v>171.9816284047106</v>
       </c>
       <c r="X379" t="n">
         <v>23092</v>
@@ -32776,7 +32776,7 @@
         <v>1</v>
       </c>
       <c r="W380" s="3" t="n">
-        <v>184.0807317671991</v>
+        <v>184.1066284047106</v>
       </c>
       <c r="X380" t="n">
         <v>23091</v>
@@ -32861,7 +32861,7 @@
         <v>1</v>
       </c>
       <c r="W381" s="3" t="n">
-        <v>184.0807317671991</v>
+        <v>184.1066284047106</v>
       </c>
       <c r="X381" t="n">
         <v>23091</v>
@@ -32946,7 +32946,7 @@
         <v>1</v>
       </c>
       <c r="W382" s="3" t="n">
-        <v>184.1640651005324</v>
+        <v>184.189961738044</v>
       </c>
       <c r="X382" t="n">
         <v>23090</v>
@@ -33031,7 +33031,7 @@
         <v>1</v>
       </c>
       <c r="W383" s="3" t="n">
-        <v>184.1640651005324</v>
+        <v>184.189961738044</v>
       </c>
       <c r="X383" t="n">
         <v>23090</v>
@@ -33116,7 +33116,7 @@
         <v>1</v>
       </c>
       <c r="W384" s="3" t="n">
-        <v>185.0390651005324</v>
+        <v>185.064961738044</v>
       </c>
       <c r="X384" t="n">
         <v>23089</v>
@@ -33201,7 +33201,7 @@
         <v>1</v>
       </c>
       <c r="W385" s="3" t="n">
-        <v>185.0390651005324</v>
+        <v>185.064961738044</v>
       </c>
       <c r="X385" t="n">
         <v>23089</v>
@@ -33286,7 +33286,7 @@
         <v>1</v>
       </c>
       <c r="W386" s="3" t="n">
-        <v>185.1640651005324</v>
+        <v>185.189961738044</v>
       </c>
       <c r="X386" t="n">
         <v>23088</v>
@@ -33371,7 +33371,7 @@
         <v>1</v>
       </c>
       <c r="W387" s="3" t="n">
-        <v>185.1640651005324</v>
+        <v>185.189961738044</v>
       </c>
       <c r="X387" t="n">
         <v>23086</v>
@@ -33456,7 +33456,7 @@
         <v>1</v>
       </c>
       <c r="W388" s="3" t="n">
-        <v>185.1640651005324</v>
+        <v>185.189961738044</v>
       </c>
       <c r="X388" t="n">
         <v>23084</v>
@@ -33541,7 +33541,7 @@
         <v>1</v>
       </c>
       <c r="W389" s="3" t="n">
-        <v>185.1640651005324</v>
+        <v>185.189961738044</v>
       </c>
       <c r="X389" t="n">
         <v>23088</v>
@@ -33626,7 +33626,7 @@
         <v>1</v>
       </c>
       <c r="W390" s="3" t="n">
-        <v>185.1640651005324</v>
+        <v>185.189961738044</v>
       </c>
       <c r="X390" t="n">
         <v>23085</v>
@@ -33711,7 +33711,7 @@
         <v>1</v>
       </c>
       <c r="W391" s="3" t="n">
-        <v>185.1640651005324</v>
+        <v>185.189961738044</v>
       </c>
       <c r="X391" t="n">
         <v>23084</v>
@@ -33796,7 +33796,7 @@
         <v>1</v>
       </c>
       <c r="W392" s="3" t="n">
-        <v>185.1640651005324</v>
+        <v>185.189961738044</v>
       </c>
       <c r="X392" t="n">
         <v>23086</v>
@@ -33881,7 +33881,7 @@
         <v>1</v>
       </c>
       <c r="W393" s="3" t="n">
-        <v>185.1640651005324</v>
+        <v>185.189961738044</v>
       </c>
       <c r="X393" t="n">
         <v>23087</v>
@@ -33966,7 +33966,7 @@
         <v>1</v>
       </c>
       <c r="W394" s="3" t="n">
-        <v>185.1640651005324</v>
+        <v>185.189961738044</v>
       </c>
       <c r="X394" t="n">
         <v>23087</v>
@@ -34051,7 +34051,7 @@
         <v>1</v>
       </c>
       <c r="W395" s="3" t="n">
-        <v>185.1640651005324</v>
+        <v>185.189961738044</v>
       </c>
       <c r="X395" t="n">
         <v>23085</v>
@@ -34136,7 +34136,7 @@
         <v>1</v>
       </c>
       <c r="W396" s="3" t="n">
-        <v>185.9557317671991</v>
+        <v>185.9816284047106</v>
       </c>
       <c r="X396" t="n">
         <v>23083</v>
@@ -34221,7 +34221,7 @@
         <v>1</v>
       </c>
       <c r="W397" s="3" t="n">
-        <v>185.9557317671991</v>
+        <v>185.9816284047106</v>
       </c>
       <c r="X397" t="n">
         <v>23083</v>
@@ -34306,7 +34306,7 @@
         <v>1</v>
       </c>
       <c r="W398" s="3" t="n">
-        <v>191.0807317671991</v>
+        <v>191.1066284047106</v>
       </c>
       <c r="X398" t="n">
         <v>23082</v>
@@ -34391,7 +34391,7 @@
         <v>1</v>
       </c>
       <c r="W399" s="3" t="n">
-        <v>191.0807317671991</v>
+        <v>191.1066284047106</v>
       </c>
       <c r="X399" t="n">
         <v>23082</v>
@@ -34476,7 +34476,7 @@
         <v>1</v>
       </c>
       <c r="W400" s="3" t="n">
-        <v>191.1640651005324</v>
+        <v>191.189961738044</v>
       </c>
       <c r="X400" t="n">
         <v>23081</v>
@@ -34561,7 +34561,7 @@
         <v>1</v>
       </c>
       <c r="W401" s="3" t="n">
-        <v>191.1640651005324</v>
+        <v>191.189961738044</v>
       </c>
       <c r="X401" t="n">
         <v>23081</v>
@@ -34646,7 +34646,7 @@
         <v>1</v>
       </c>
       <c r="W402" s="3" t="n">
-        <v>192.0390651005324</v>
+        <v>192.064961738044</v>
       </c>
       <c r="X402" t="n">
         <v>23080</v>
@@ -34731,7 +34731,7 @@
         <v>1</v>
       </c>
       <c r="W403" s="3" t="n">
-        <v>192.0390651005324</v>
+        <v>192.064961738044</v>
       </c>
       <c r="X403" t="n">
         <v>23080</v>
@@ -34816,7 +34816,7 @@
         <v>1</v>
       </c>
       <c r="W404" s="3" t="n">
-        <v>192.1640651005324</v>
+        <v>192.189961738044</v>
       </c>
       <c r="X404" t="n">
         <v>23079</v>
@@ -34901,7 +34901,7 @@
         <v>1</v>
       </c>
       <c r="W405" s="3" t="n">
-        <v>192.1640651005324</v>
+        <v>192.189961738044</v>
       </c>
       <c r="X405" t="n">
         <v>23076</v>
@@ -34986,7 +34986,7 @@
         <v>1</v>
       </c>
       <c r="W406" s="3" t="n">
-        <v>192.1640651005324</v>
+        <v>192.189961738044</v>
       </c>
       <c r="X406" t="n">
         <v>23075</v>
@@ -35071,7 +35071,7 @@
         <v>1</v>
       </c>
       <c r="W407" s="3" t="n">
-        <v>192.1640651005324</v>
+        <v>192.189961738044</v>
       </c>
       <c r="X407" t="n">
         <v>23079</v>
@@ -35156,7 +35156,7 @@
         <v>1</v>
       </c>
       <c r="W408" s="3" t="n">
-        <v>192.1640651005324</v>
+        <v>192.189961738044</v>
       </c>
       <c r="X408" t="n">
         <v>23076</v>
@@ -35241,7 +35241,7 @@
         <v>1</v>
       </c>
       <c r="W409" s="3" t="n">
-        <v>192.1640651005324</v>
+        <v>192.189961738044</v>
       </c>
       <c r="X409" t="n">
         <v>23075</v>
@@ -35326,7 +35326,7 @@
         <v>1</v>
       </c>
       <c r="W410" s="3" t="n">
-        <v>192.1640651005324</v>
+        <v>192.189961738044</v>
       </c>
       <c r="X410" t="n">
         <v>23077</v>
@@ -35411,7 +35411,7 @@
         <v>1</v>
       </c>
       <c r="W411" s="3" t="n">
-        <v>192.1640651005324</v>
+        <v>192.189961738044</v>
       </c>
       <c r="X411" t="n">
         <v>23077</v>
@@ -35496,7 +35496,7 @@
         <v>1</v>
       </c>
       <c r="W412" s="3" t="n">
-        <v>192.1640651005324</v>
+        <v>192.189961738044</v>
       </c>
       <c r="X412" t="n">
         <v>23078</v>
@@ -35581,7 +35581,7 @@
         <v>1</v>
       </c>
       <c r="W413" s="3" t="n">
-        <v>192.1640651005324</v>
+        <v>192.189961738044</v>
       </c>
       <c r="X413" t="n">
         <v>23078</v>
@@ -35666,7 +35666,7 @@
         <v>1</v>
       </c>
       <c r="W414" s="3" t="n">
-        <v>192.9557317671991</v>
+        <v>192.9816284047106</v>
       </c>
       <c r="X414" t="n">
         <v>23074</v>
@@ -35751,7 +35751,7 @@
         <v>1</v>
       </c>
       <c r="W415" s="3" t="n">
-        <v>192.9557317671991</v>
+        <v>192.9816284047106</v>
       </c>
       <c r="X415" t="n">
         <v>23074</v>
@@ -35836,7 +35836,7 @@
         <v>1</v>
       </c>
       <c r="W416" s="3" t="n">
-        <v>198.0807317671991</v>
+        <v>198.1066284047106</v>
       </c>
       <c r="X416" t="n">
         <v>23073</v>
@@ -35921,7 +35921,7 @@
         <v>1</v>
       </c>
       <c r="W417" s="3" t="n">
-        <v>198.0807317671991</v>
+        <v>198.1066284047106</v>
       </c>
       <c r="X417" t="n">
         <v>23073</v>
@@ -36006,7 +36006,7 @@
         <v>1</v>
       </c>
       <c r="W418" s="3" t="n">
-        <v>198.1640651005324</v>
+        <v>198.189961738044</v>
       </c>
       <c r="X418" t="n">
         <v>23072</v>
@@ -36091,7 +36091,7 @@
         <v>1</v>
       </c>
       <c r="W419" s="3" t="n">
-        <v>198.1640651005324</v>
+        <v>198.189961738044</v>
       </c>
       <c r="X419" t="n">
         <v>23072</v>
@@ -36176,7 +36176,7 @@
         <v>1</v>
       </c>
       <c r="W420" s="3" t="n">
-        <v>199.0390651005324</v>
+        <v>199.064961738044</v>
       </c>
       <c r="X420" t="n">
         <v>23071</v>
@@ -36261,7 +36261,7 @@
         <v>1</v>
       </c>
       <c r="W421" s="3" t="n">
-        <v>199.0390651005324</v>
+        <v>199.064961738044</v>
       </c>
       <c r="X421" t="n">
         <v>23071</v>
@@ -36346,7 +36346,7 @@
         <v>1</v>
       </c>
       <c r="W422" s="3" t="n">
-        <v>199.1640651005324</v>
+        <v>199.189961738044</v>
       </c>
       <c r="X422" t="n">
         <v>23070</v>
@@ -36431,7 +36431,7 @@
         <v>1</v>
       </c>
       <c r="W423" s="3" t="n">
-        <v>199.1640651005324</v>
+        <v>199.189961738044</v>
       </c>
       <c r="X423" t="n">
         <v>23069</v>
@@ -36516,7 +36516,7 @@
         <v>1</v>
       </c>
       <c r="W424" s="3" t="n">
-        <v>199.1640651005324</v>
+        <v>199.189961738044</v>
       </c>
       <c r="X424" t="n">
         <v>23069</v>
@@ -36601,7 +36601,7 @@
         <v>1</v>
       </c>
       <c r="W425" s="3" t="n">
-        <v>199.1640651005324</v>
+        <v>199.189961738044</v>
       </c>
       <c r="X425" t="n">
         <v>23068</v>
@@ -36686,7 +36686,7 @@
         <v>1</v>
       </c>
       <c r="W426" s="3" t="n">
-        <v>199.1640651005324</v>
+        <v>199.189961738044</v>
       </c>
       <c r="X426" t="n">
         <v>23068</v>
@@ -36771,7 +36771,7 @@
         <v>1</v>
       </c>
       <c r="W427" s="3" t="n">
-        <v>199.1640651005324</v>
+        <v>199.189961738044</v>
       </c>
       <c r="X427" t="n">
         <v>23067</v>
@@ -36856,7 +36856,7 @@
         <v>1</v>
       </c>
       <c r="W428" s="3" t="n">
-        <v>199.1640651005324</v>
+        <v>199.189961738044</v>
       </c>
       <c r="X428" t="n">
         <v>23067</v>
@@ -36941,7 +36941,7 @@
         <v>1</v>
       </c>
       <c r="W429" s="3" t="n">
-        <v>199.1640651005324</v>
+        <v>199.189961738044</v>
       </c>
       <c r="X429" t="n">
         <v>23066</v>
@@ -37026,7 +37026,7 @@
         <v>1</v>
       </c>
       <c r="W430" s="3" t="n">
-        <v>199.1640651005324</v>
+        <v>199.189961738044</v>
       </c>
       <c r="X430" t="n">
         <v>23066</v>
@@ -37111,7 +37111,7 @@
         <v>1</v>
       </c>
       <c r="W431" s="3" t="n">
-        <v>199.1640651005324</v>
+        <v>199.189961738044</v>
       </c>
       <c r="X431" t="n">
         <v>23070</v>
@@ -37196,7 +37196,7 @@
         <v>1</v>
       </c>
       <c r="W432" s="3" t="n">
-        <v>199.9557317671991</v>
+        <v>199.9816284047106</v>
       </c>
       <c r="X432" t="n">
         <v>23065</v>
@@ -37281,7 +37281,7 @@
         <v>1</v>
       </c>
       <c r="W433" s="3" t="n">
-        <v>199.9557317671991</v>
+        <v>199.9816284047106</v>
       </c>
       <c r="X433" t="n">
         <v>23065</v>
@@ -37366,7 +37366,7 @@
         <v>1</v>
       </c>
       <c r="W434" s="3" t="n">
-        <v>283.1640651005324</v>
+        <v>283.189961738044</v>
       </c>
       <c r="X434" t="n">
         <v>19639</v>
@@ -37451,7 +37451,7 @@
         <v>1</v>
       </c>
       <c r="W435" s="3" t="n">
-        <v>283.1640651005324</v>
+        <v>283.189961738044</v>
       </c>
       <c r="X435" t="n">
         <v>19639</v>
@@ -37536,7 +37536,7 @@
         <v>1</v>
       </c>
       <c r="W436" s="3" t="n">
-        <v>283.1640651005324</v>
+        <v>283.189961738044</v>
       </c>
       <c r="X436" t="n">
         <v>19640</v>
@@ -37621,7 +37621,7 @@
         <v>1</v>
       </c>
       <c r="W437" s="3" t="n">
-        <v>283.1640651005324</v>
+        <v>283.189961738044</v>
       </c>
       <c r="X437" t="n">
         <v>19640</v>
@@ -37706,7 +37706,7 @@
         <v>1</v>
       </c>
       <c r="W438" s="3" t="n">
-        <v>283.1640651005324</v>
+        <v>283.189961738044</v>
       </c>
       <c r="X438" t="n">
         <v>19643</v>
@@ -37791,7 +37791,7 @@
         <v>1</v>
       </c>
       <c r="W439" s="3" t="n">
-        <v>283.1640651005324</v>
+        <v>283.189961738044</v>
       </c>
       <c r="X439" t="n">
         <v>19641</v>
@@ -37876,7 +37876,7 @@
         <v>1</v>
       </c>
       <c r="W440" s="3" t="n">
-        <v>283.1640651005324</v>
+        <v>283.189961738044</v>
       </c>
       <c r="X440" t="n">
         <v>19641</v>
@@ -37961,7 +37961,7 @@
         <v>1</v>
       </c>
       <c r="W441" s="3" t="n">
-        <v>283.1640651005324</v>
+        <v>283.189961738044</v>
       </c>
       <c r="X441" t="n">
         <v>19642</v>
@@ -38046,7 +38046,7 @@
         <v>1</v>
       </c>
       <c r="W442" s="3" t="n">
-        <v>283.1640651005324</v>
+        <v>283.189961738044</v>
       </c>
       <c r="X442" t="n">
         <v>19642</v>
@@ -38131,7 +38131,7 @@
         <v>1</v>
       </c>
       <c r="W443" s="3" t="n">
-        <v>283.1640651005324</v>
+        <v>283.189961738044</v>
       </c>
       <c r="X443" t="n">
         <v>19645</v>
@@ -38216,7 +38216,7 @@
         <v>1</v>
       </c>
       <c r="W444" s="3" t="n">
-        <v>283.1640651005324</v>
+        <v>283.189961738044</v>
       </c>
       <c r="X444" t="n">
         <v>19643</v>
@@ -38301,7 +38301,7 @@
         <v>1</v>
       </c>
       <c r="W445" s="3" t="n">
-        <v>283.1640651005324</v>
+        <v>283.189961738044</v>
       </c>
       <c r="X445" t="n">
         <v>19644</v>
@@ -38386,7 +38386,7 @@
         <v>1</v>
       </c>
       <c r="W446" s="3" t="n">
-        <v>283.1640651005324</v>
+        <v>283.189961738044</v>
       </c>
       <c r="X446" t="n">
         <v>19644</v>
@@ -38471,7 +38471,7 @@
         <v>1</v>
       </c>
       <c r="W447" s="3" t="n">
-        <v>283.1640651005324</v>
+        <v>283.189961738044</v>
       </c>
       <c r="X447" t="n">
         <v>19645</v>
@@ -38556,7 +38556,7 @@
         <v>1</v>
       </c>
       <c r="W448" s="3" t="n">
-        <v>283.1640651005324</v>
+        <v>283.189961738044</v>
       </c>
       <c r="X448" t="n">
         <v>19646</v>
@@ -38641,7 +38641,7 @@
         <v>1</v>
       </c>
       <c r="W449" s="3" t="n">
-        <v>283.1640651005324</v>
+        <v>283.189961738044</v>
       </c>
       <c r="X449" t="n">
         <v>19646</v>
@@ -38726,7 +38726,7 @@
         <v>1</v>
       </c>
       <c r="W450" s="3" t="n">
-        <v>283.1640651005324</v>
+        <v>283.189961738044</v>
       </c>
       <c r="X450" t="n">
         <v>19647</v>
@@ -38811,7 +38811,7 @@
         <v>1</v>
       </c>
       <c r="W451" s="3" t="n">
-        <v>283.1640651005324</v>
+        <v>283.189961738044</v>
       </c>
       <c r="X451" t="n">
         <v>19647</v>
@@ -38896,7 +38896,7 @@
         <v>1</v>
       </c>
       <c r="W452" s="3" t="n">
-        <v>288.9973984338657</v>
+        <v>289.0232950713773</v>
       </c>
       <c r="X452" t="n">
         <v>19631</v>
@@ -38981,7 +38981,7 @@
         <v>1</v>
       </c>
       <c r="W453" s="3" t="n">
-        <v>288.9973984338657</v>
+        <v>289.0232950713773</v>
       </c>
       <c r="X453" t="n">
         <v>19631</v>
@@ -39066,7 +39066,7 @@
         <v>1</v>
       </c>
       <c r="W454" s="3" t="n">
-        <v>289.0807317671991</v>
+        <v>289.1066284047106</v>
       </c>
       <c r="X454" t="n">
         <v>19635</v>
@@ -39151,7 +39151,7 @@
         <v>1</v>
       </c>
       <c r="W455" s="3" t="n">
-        <v>289.0807317671991</v>
+        <v>289.1066284047106</v>
       </c>
       <c r="X455" t="n">
         <v>19635</v>
@@ -39236,7 +39236,7 @@
         <v>1</v>
       </c>
       <c r="W456" s="3" t="n">
-        <v>289.1640651005324</v>
+        <v>289.189961738044</v>
       </c>
       <c r="X456" t="n">
         <v>19633</v>
@@ -39321,7 +39321,7 @@
         <v>1</v>
       </c>
       <c r="W457" s="3" t="n">
-        <v>289.1640651005324</v>
+        <v>289.189961738044</v>
       </c>
       <c r="X457" t="n">
         <v>19633</v>
@@ -39406,7 +39406,7 @@
         <v>1</v>
       </c>
       <c r="W458" s="3" t="n">
-        <v>290.0390651005324</v>
+        <v>290.064961738044</v>
       </c>
       <c r="X458" t="n">
         <v>19630</v>
@@ -39491,7 +39491,7 @@
         <v>1</v>
       </c>
       <c r="W459" s="3" t="n">
-        <v>290.0390651005324</v>
+        <v>290.064961738044</v>
       </c>
       <c r="X459" t="n">
         <v>19630</v>
@@ -39576,7 +39576,7 @@
         <v>1</v>
       </c>
       <c r="W460" s="3" t="n">
-        <v>290.1640651005324</v>
+        <v>290.189961738044</v>
       </c>
       <c r="X460" t="n">
         <v>19638</v>
@@ -39661,7 +39661,7 @@
         <v>1</v>
       </c>
       <c r="W461" s="3" t="n">
-        <v>290.1640651005324</v>
+        <v>290.189961738044</v>
       </c>
       <c r="X461" t="n">
         <v>19636</v>
@@ -39746,7 +39746,7 @@
         <v>1</v>
       </c>
       <c r="W462" s="3" t="n">
-        <v>290.1640651005324</v>
+        <v>290.189961738044</v>
       </c>
       <c r="X462" t="n">
         <v>19638</v>
@@ -39831,7 +39831,7 @@
         <v>1</v>
       </c>
       <c r="W463" s="3" t="n">
-        <v>290.1640651005324</v>
+        <v>290.189961738044</v>
       </c>
       <c r="X463" t="n">
         <v>19636</v>
@@ -39916,7 +39916,7 @@
         <v>1</v>
       </c>
       <c r="W464" s="3" t="n">
-        <v>290.1640651005324</v>
+        <v>290.189961738044</v>
       </c>
       <c r="X464" t="n">
         <v>19637</v>
@@ -40001,7 +40001,7 @@
         <v>1</v>
       </c>
       <c r="W465" s="3" t="n">
-        <v>290.1640651005324</v>
+        <v>290.189961738044</v>
       </c>
       <c r="X465" t="n">
         <v>19637</v>
@@ -40086,7 +40086,7 @@
         <v>1</v>
       </c>
       <c r="W466" s="3" t="n">
-        <v>290.1640651005324</v>
+        <v>290.189961738044</v>
       </c>
       <c r="X466" t="n">
         <v>19634</v>
@@ -40171,7 +40171,7 @@
         <v>1</v>
       </c>
       <c r="W467" s="3" t="n">
-        <v>290.1640651005324</v>
+        <v>290.189961738044</v>
       </c>
       <c r="X467" t="n">
         <v>19634</v>
@@ -40256,7 +40256,7 @@
         <v>1</v>
       </c>
       <c r="W468" s="3" t="n">
-        <v>290.9557317671991</v>
+        <v>290.9816284047106</v>
       </c>
       <c r="X468" t="n">
         <v>19632</v>
@@ -40341,7 +40341,7 @@
         <v>1</v>
       </c>
       <c r="W469" s="3" t="n">
-        <v>290.9557317671991</v>
+        <v>290.9816284047106</v>
       </c>
       <c r="X469" t="n">
         <v>19632</v>
@@ -40426,7 +40426,7 @@
         <v>1</v>
       </c>
       <c r="W470" s="3" t="n">
-        <v>296.0807317671991</v>
+        <v>296.1066284047106</v>
       </c>
       <c r="X470" t="n">
         <v>19623</v>
@@ -40511,7 +40511,7 @@
         <v>1</v>
       </c>
       <c r="W471" s="3" t="n">
-        <v>296.0807317671991</v>
+        <v>296.1066284047106</v>
       </c>
       <c r="X471" t="n">
         <v>19623</v>
@@ -40596,7 +40596,7 @@
         <v>1</v>
       </c>
       <c r="W472" s="3" t="n">
-        <v>296.1640651005324</v>
+        <v>296.189961738044</v>
       </c>
       <c r="X472" t="n">
         <v>19629</v>
@@ -40681,7 +40681,7 @@
         <v>1</v>
       </c>
       <c r="W473" s="3" t="n">
-        <v>296.1640651005324</v>
+        <v>296.189961738044</v>
       </c>
       <c r="X473" t="n">
         <v>19629</v>
@@ -40766,7 +40766,7 @@
         <v>1</v>
       </c>
       <c r="W474" s="3" t="n">
-        <v>297.0390651005324</v>
+        <v>297.064961738044</v>
       </c>
       <c r="X474" t="n">
         <v>19622</v>
@@ -40851,7 +40851,7 @@
         <v>1</v>
       </c>
       <c r="W475" s="3" t="n">
-        <v>297.0390651005324</v>
+        <v>297.064961738044</v>
       </c>
       <c r="X475" t="n">
         <v>19622</v>
@@ -40936,7 +40936,7 @@
         <v>1</v>
       </c>
       <c r="W476" s="3" t="n">
-        <v>297.1640651005324</v>
+        <v>297.189961738044</v>
       </c>
       <c r="X476" t="n">
         <v>19624</v>
@@ -41021,7 +41021,7 @@
         <v>1</v>
       </c>
       <c r="W477" s="3" t="n">
-        <v>297.1640651005324</v>
+        <v>297.189961738044</v>
       </c>
       <c r="X477" t="n">
         <v>19621</v>
@@ -41106,7 +41106,7 @@
         <v>1</v>
       </c>
       <c r="W478" s="3" t="n">
-        <v>297.1640651005324</v>
+        <v>297.189961738044</v>
       </c>
       <c r="X478" t="n">
         <v>19621</v>
@@ -41191,7 +41191,7 @@
         <v>1</v>
       </c>
       <c r="W479" s="3" t="n">
-        <v>297.1640651005324</v>
+        <v>297.189961738044</v>
       </c>
       <c r="X479" t="n">
         <v>19624</v>
@@ -41276,7 +41276,7 @@
         <v>1</v>
       </c>
       <c r="W480" s="3" t="n">
-        <v>297.1640651005324</v>
+        <v>297.189961738044</v>
       </c>
       <c r="X480" t="n">
         <v>19626</v>
@@ -41361,7 +41361,7 @@
         <v>1</v>
       </c>
       <c r="W481" s="3" t="n">
-        <v>297.1640651005324</v>
+        <v>297.189961738044</v>
       </c>
       <c r="X481" t="n">
         <v>19626</v>
@@ -41446,7 +41446,7 @@
         <v>1</v>
       </c>
       <c r="W482" s="3" t="n">
-        <v>297.1640651005324</v>
+        <v>297.189961738044</v>
       </c>
       <c r="X482" t="n">
         <v>19627</v>
@@ -41531,7 +41531,7 @@
         <v>1</v>
       </c>
       <c r="W483" s="3" t="n">
-        <v>297.1640651005324</v>
+        <v>297.189961738044</v>
       </c>
       <c r="X483" t="n">
         <v>19627</v>
@@ -41616,7 +41616,7 @@
         <v>1</v>
       </c>
       <c r="W484" s="3" t="n">
-        <v>297.1640651005324</v>
+        <v>297.189961738044</v>
       </c>
       <c r="X484" t="n">
         <v>19628</v>
@@ -41701,7 +41701,7 @@
         <v>1</v>
       </c>
       <c r="W485" s="3" t="n">
-        <v>297.1640651005324</v>
+        <v>297.189961738044</v>
       </c>
       <c r="X485" t="n">
         <v>19628</v>
@@ -41786,7 +41786,7 @@
         <v>1</v>
       </c>
       <c r="W486" s="3" t="n">
-        <v>297.9557317671991</v>
+        <v>297.9816284047106</v>
       </c>
       <c r="X486" t="n">
         <v>19625</v>
@@ -41871,7 +41871,7 @@
         <v>1</v>
       </c>
       <c r="W487" s="3" t="n">
-        <v>297.9557317671991</v>
+        <v>297.9816284047106</v>
       </c>
       <c r="X487" t="n">
         <v>19625</v>
@@ -41956,7 +41956,7 @@
         <v>1</v>
       </c>
       <c r="W488" s="3" t="n">
-        <v>303.0807317671991</v>
+        <v>303.1066284047106</v>
       </c>
       <c r="X488" t="n">
         <v>19612</v>
@@ -42041,7 +42041,7 @@
         <v>1</v>
       </c>
       <c r="W489" s="3" t="n">
-        <v>303.0807317671991</v>
+        <v>303.1066284047106</v>
       </c>
       <c r="X489" t="n">
         <v>19612</v>
@@ -42126,7 +42126,7 @@
         <v>1</v>
       </c>
       <c r="W490" s="3" t="n">
-        <v>304.0390651005324</v>
+        <v>304.064961738044</v>
       </c>
       <c r="X490" t="n">
         <v>19620</v>
@@ -42211,7 +42211,7 @@
         <v>1</v>
       </c>
       <c r="W491" s="3" t="n">
-        <v>304.0390651005324</v>
+        <v>304.064961738044</v>
       </c>
       <c r="X491" t="n">
         <v>19620</v>
@@ -42296,7 +42296,7 @@
         <v>1</v>
       </c>
       <c r="W492" s="3" t="n">
-        <v>304.1640651005324</v>
+        <v>304.189961738044</v>
       </c>
       <c r="X492" t="n">
         <v>19616</v>
@@ -42381,7 +42381,7 @@
         <v>1</v>
       </c>
       <c r="W493" s="3" t="n">
-        <v>304.1640651005324</v>
+        <v>304.189961738044</v>
       </c>
       <c r="X493" t="n">
         <v>19614</v>
@@ -42466,7 +42466,7 @@
         <v>1</v>
       </c>
       <c r="W494" s="3" t="n">
-        <v>304.1640651005324</v>
+        <v>304.189961738044</v>
       </c>
       <c r="X494" t="n">
         <v>19614</v>
@@ -42551,7 +42551,7 @@
         <v>1</v>
       </c>
       <c r="W495" s="3" t="n">
-        <v>304.1640651005324</v>
+        <v>304.189961738044</v>
       </c>
       <c r="X495" t="n">
         <v>19616</v>
@@ -42636,7 +42636,7 @@
         <v>1</v>
       </c>
       <c r="W496" s="3" t="n">
-        <v>304.1640651005324</v>
+        <v>304.189961738044</v>
       </c>
       <c r="X496" t="n">
         <v>19618</v>
@@ -42721,7 +42721,7 @@
         <v>1</v>
       </c>
       <c r="W497" s="3" t="n">
-        <v>304.1640651005324</v>
+        <v>304.189961738044</v>
       </c>
       <c r="X497" t="n">
         <v>19617</v>
@@ -42806,7 +42806,7 @@
         <v>1</v>
       </c>
       <c r="W498" s="3" t="n">
-        <v>304.1640651005324</v>
+        <v>304.189961738044</v>
       </c>
       <c r="X498" t="n">
         <v>19617</v>
@@ -42891,7 +42891,7 @@
         <v>1</v>
       </c>
       <c r="W499" s="3" t="n">
-        <v>304.1640651005324</v>
+        <v>304.189961738044</v>
       </c>
       <c r="X499" t="n">
         <v>19619</v>
@@ -42976,7 +42976,7 @@
         <v>1</v>
       </c>
       <c r="W500" s="3" t="n">
-        <v>304.1640651005324</v>
+        <v>304.189961738044</v>
       </c>
       <c r="X500" t="n">
         <v>19618</v>
@@ -43061,7 +43061,7 @@
         <v>1</v>
       </c>
       <c r="W501" s="3" t="n">
-        <v>304.1640651005324</v>
+        <v>304.189961738044</v>
       </c>
       <c r="X501" t="n">
         <v>19619</v>
@@ -43146,7 +43146,7 @@
         <v>1</v>
       </c>
       <c r="W502" s="3" t="n">
-        <v>304.9557317671991</v>
+        <v>304.9816284047106</v>
       </c>
       <c r="X502" t="n">
         <v>19615</v>
@@ -43231,7 +43231,7 @@
         <v>1</v>
       </c>
       <c r="W503" s="3" t="n">
-        <v>304.9557317671991</v>
+        <v>304.9816284047106</v>
       </c>
       <c r="X503" t="n">
         <v>19613</v>
@@ -43316,7 +43316,7 @@
         <v>1</v>
       </c>
       <c r="W504" s="3" t="n">
-        <v>304.9557317671991</v>
+        <v>304.9816284047106</v>
       </c>
       <c r="X504" t="n">
         <v>19613</v>
@@ -43401,7 +43401,7 @@
         <v>1</v>
       </c>
       <c r="W505" s="3" t="n">
-        <v>304.9557317671991</v>
+        <v>304.9816284047106</v>
       </c>
       <c r="X505" t="n">
         <v>19615</v>
@@ -43486,7 +43486,7 @@
         <v>1</v>
       </c>
       <c r="W506" s="3" t="n">
-        <v>310.0807317671991</v>
+        <v>310.1066284047106</v>
       </c>
       <c r="X506" t="n">
         <v>19608</v>
@@ -43571,7 +43571,7 @@
         <v>1</v>
       </c>
       <c r="W507" s="3" t="n">
-        <v>310.0807317671991</v>
+        <v>310.1066284047106</v>
       </c>
       <c r="X507" t="n">
         <v>19608</v>
@@ -43656,7 +43656,7 @@
         <v>1</v>
       </c>
       <c r="W508" s="3" t="n">
-        <v>310.1640651005324</v>
+        <v>310.189961738044</v>
       </c>
       <c r="X508" t="n">
         <v>19603</v>
@@ -43741,7 +43741,7 @@
         <v>1</v>
       </c>
       <c r="W509" s="3" t="n">
-        <v>310.1640651005324</v>
+        <v>310.189961738044</v>
       </c>
       <c r="X509" t="n">
         <v>19603</v>
@@ -43826,7 +43826,7 @@
         <v>1</v>
       </c>
       <c r="W510" s="3" t="n">
-        <v>311.0390651005324</v>
+        <v>311.064961738044</v>
       </c>
       <c r="X510" t="n">
         <v>19611</v>
@@ -43911,7 +43911,7 @@
         <v>1</v>
       </c>
       <c r="W511" s="3" t="n">
-        <v>311.0390651005324</v>
+        <v>311.064961738044</v>
       </c>
       <c r="X511" t="n">
         <v>19611</v>
@@ -43996,7 +43996,7 @@
         <v>1</v>
       </c>
       <c r="W512" s="3" t="n">
-        <v>311.1640651005324</v>
+        <v>311.189961738044</v>
       </c>
       <c r="X512" t="n">
         <v>19610</v>
@@ -44081,7 +44081,7 @@
         <v>1</v>
       </c>
       <c r="W513" s="3" t="n">
-        <v>311.1640651005324</v>
+        <v>311.189961738044</v>
       </c>
       <c r="X513" t="n">
         <v>19610</v>
@@ -44166,7 +44166,7 @@
         <v>1</v>
       </c>
       <c r="W514" s="3" t="n">
-        <v>311.1640651005324</v>
+        <v>311.189961738044</v>
       </c>
       <c r="X514" t="n">
         <v>19604</v>
@@ -44251,7 +44251,7 @@
         <v>1</v>
       </c>
       <c r="W515" s="3" t="n">
-        <v>311.1640651005324</v>
+        <v>311.189961738044</v>
       </c>
       <c r="X515" t="n">
         <v>19604</v>
@@ -44336,7 +44336,7 @@
         <v>1</v>
       </c>
       <c r="W516" s="3" t="n">
-        <v>311.1640651005324</v>
+        <v>311.189961738044</v>
       </c>
       <c r="X516" t="n">
         <v>19605</v>
@@ -44421,7 +44421,7 @@
         <v>1</v>
       </c>
       <c r="W517" s="3" t="n">
-        <v>311.1640651005324</v>
+        <v>311.189961738044</v>
       </c>
       <c r="X517" t="n">
         <v>19605</v>
@@ -44506,7 +44506,7 @@
         <v>1</v>
       </c>
       <c r="W518" s="3" t="n">
-        <v>311.1640651005324</v>
+        <v>311.189961738044</v>
       </c>
       <c r="X518" t="n">
         <v>19606</v>
@@ -44591,7 +44591,7 @@
         <v>1</v>
       </c>
       <c r="W519" s="3" t="n">
-        <v>311.1640651005324</v>
+        <v>311.189961738044</v>
       </c>
       <c r="X519" t="n">
         <v>19606</v>
@@ -44676,7 +44676,7 @@
         <v>1</v>
       </c>
       <c r="W520" s="3" t="n">
-        <v>311.1640651005324</v>
+        <v>311.189961738044</v>
       </c>
       <c r="X520" t="n">
         <v>19607</v>
@@ -44761,7 +44761,7 @@
         <v>1</v>
       </c>
       <c r="W521" s="3" t="n">
-        <v>311.1640651005324</v>
+        <v>311.189961738044</v>
       </c>
       <c r="X521" t="n">
         <v>19607</v>
@@ -44846,7 +44846,7 @@
         <v>1</v>
       </c>
       <c r="W522" s="3" t="n">
-        <v>311.9557317671991</v>
+        <v>311.9816284047106</v>
       </c>
       <c r="X522" t="n">
         <v>19609</v>
@@ -44931,7 +44931,7 @@
         <v>1</v>
       </c>
       <c r="W523" s="3" t="n">
-        <v>311.9557317671991</v>
+        <v>311.9816284047106</v>
       </c>
       <c r="X523" t="n">
         <v>19609</v>
@@ -45016,7 +45016,7 @@
         <v>1</v>
       </c>
       <c r="W524" s="3" t="n">
-        <v>316.9973984338657</v>
+        <v>317.0232950713773</v>
       </c>
       <c r="X524" t="n">
         <v>19599</v>
@@ -45101,7 +45101,7 @@
         <v>1</v>
       </c>
       <c r="W525" s="3" t="n">
-        <v>316.9973984338657</v>
+        <v>317.0232950713773</v>
       </c>
       <c r="X525" t="n">
         <v>19599</v>
@@ -45186,7 +45186,7 @@
         <v>1</v>
       </c>
       <c r="W526" s="3" t="n">
-        <v>317.0807317671991</v>
+        <v>317.1066284047106</v>
       </c>
       <c r="X526" t="n">
         <v>19595</v>
@@ -45271,7 +45271,7 @@
         <v>1</v>
       </c>
       <c r="W527" s="3" t="n">
-        <v>317.0807317671991</v>
+        <v>317.1066284047106</v>
       </c>
       <c r="X527" t="n">
         <v>19595</v>
@@ -45356,7 +45356,7 @@
         <v>1</v>
       </c>
       <c r="W528" s="3" t="n">
-        <v>317.1640651005324</v>
+        <v>317.189961738044</v>
       </c>
       <c r="X528" t="n">
         <v>19596</v>
@@ -45441,7 +45441,7 @@
         <v>1</v>
       </c>
       <c r="W529" s="3" t="n">
-        <v>317.1640651005324</v>
+        <v>317.189961738044</v>
       </c>
       <c r="X529" t="n">
         <v>19596</v>
@@ -45526,7 +45526,7 @@
         <v>1</v>
       </c>
       <c r="W530" s="3" t="n">
-        <v>318.0390651005324</v>
+        <v>318.064961738044</v>
       </c>
       <c r="X530" t="n">
         <v>19594</v>
@@ -45611,7 +45611,7 @@
         <v>1</v>
       </c>
       <c r="W531" s="3" t="n">
-        <v>318.0390651005324</v>
+        <v>318.064961738044</v>
       </c>
       <c r="X531" t="n">
         <v>19594</v>
@@ -45696,7 +45696,7 @@
         <v>1</v>
       </c>
       <c r="W532" s="3" t="n">
-        <v>318.1640651005324</v>
+        <v>318.189961738044</v>
       </c>
       <c r="X532" t="n">
         <v>19600</v>
@@ -45781,7 +45781,7 @@
         <v>1</v>
       </c>
       <c r="W533" s="3" t="n">
-        <v>318.1640651005324</v>
+        <v>318.189961738044</v>
       </c>
       <c r="X533" t="n">
         <v>19602</v>
@@ -45866,7 +45866,7 @@
         <v>1</v>
       </c>
       <c r="W534" s="3" t="n">
-        <v>318.1640651005324</v>
+        <v>318.189961738044</v>
       </c>
       <c r="X534" t="n">
         <v>19602</v>
@@ -45951,7 +45951,7 @@
         <v>1</v>
       </c>
       <c r="W535" s="3" t="n">
-        <v>318.1640651005324</v>
+        <v>318.189961738044</v>
       </c>
       <c r="X535" t="n">
         <v>19600</v>
@@ -46036,7 +46036,7 @@
         <v>1</v>
       </c>
       <c r="W536" s="3" t="n">
-        <v>318.1640651005324</v>
+        <v>318.189961738044</v>
       </c>
       <c r="X536" t="n">
         <v>19597</v>
@@ -46121,7 +46121,7 @@
         <v>1</v>
       </c>
       <c r="W537" s="3" t="n">
-        <v>318.1640651005324</v>
+        <v>318.189961738044</v>
       </c>
       <c r="X537" t="n">
         <v>19597</v>
@@ -46206,7 +46206,7 @@
         <v>1</v>
       </c>
       <c r="W538" s="3" t="n">
-        <v>318.1640651005324</v>
+        <v>318.189961738044</v>
       </c>
       <c r="X538" t="n">
         <v>19598</v>
@@ -46291,7 +46291,7 @@
         <v>1</v>
       </c>
       <c r="W539" s="3" t="n">
-        <v>318.1640651005324</v>
+        <v>318.189961738044</v>
       </c>
       <c r="X539" t="n">
         <v>19598</v>
@@ -46376,7 +46376,7 @@
         <v>1</v>
       </c>
       <c r="W540" s="3" t="n">
-        <v>318.9557317671991</v>
+        <v>318.9816284047106</v>
       </c>
       <c r="X540" t="n">
         <v>19601</v>
@@ -46461,7 +46461,7 @@
         <v>1</v>
       </c>
       <c r="W541" s="3" t="n">
-        <v>318.9557317671991</v>
+        <v>318.9816284047106</v>
       </c>
       <c r="X541" t="n">
         <v>19601</v>
@@ -46546,7 +46546,7 @@
         <v>1</v>
       </c>
       <c r="W542" s="3" t="n">
-        <v>323.9973984338657</v>
+        <v>324.0232950713773</v>
       </c>
       <c r="X542" t="n">
         <v>19590</v>
@@ -46631,7 +46631,7 @@
         <v>1</v>
       </c>
       <c r="W543" s="3" t="n">
-        <v>323.9973984338657</v>
+        <v>324.0232950713773</v>
       </c>
       <c r="X543" t="n">
         <v>19590</v>
@@ -46716,7 +46716,7 @@
         <v>1</v>
       </c>
       <c r="W544" s="3" t="n">
-        <v>324.0807317671991</v>
+        <v>324.1066284047106</v>
       </c>
       <c r="X544" t="n">
         <v>19587</v>
@@ -46801,7 +46801,7 @@
         <v>1</v>
       </c>
       <c r="W545" s="3" t="n">
-        <v>324.0807317671991</v>
+        <v>324.1066284047106</v>
       </c>
       <c r="X545" t="n">
         <v>19587</v>
@@ -46886,7 +46886,7 @@
         <v>1</v>
       </c>
       <c r="W546" s="3" t="n">
-        <v>324.1640651005324</v>
+        <v>324.189961738044</v>
       </c>
       <c r="X546" t="n">
         <v>19593</v>
@@ -46971,7 +46971,7 @@
         <v>1</v>
       </c>
       <c r="W547" s="3" t="n">
-        <v>324.1640651005324</v>
+        <v>324.189961738044</v>
       </c>
       <c r="X547" t="n">
         <v>19593</v>
@@ -47056,7 +47056,7 @@
         <v>1</v>
       </c>
       <c r="W548" s="3" t="n">
-        <v>325.0390651005324</v>
+        <v>325.064961738044</v>
       </c>
       <c r="X548" t="n">
         <v>19589</v>
@@ -47141,7 +47141,7 @@
         <v>1</v>
       </c>
       <c r="W549" s="3" t="n">
-        <v>325.0390651005324</v>
+        <v>325.064961738044</v>
       </c>
       <c r="X549" t="n">
         <v>19589</v>
@@ -47226,7 +47226,7 @@
         <v>1</v>
       </c>
       <c r="W550" s="3" t="n">
-        <v>325.1640651005324</v>
+        <v>325.189961738044</v>
       </c>
       <c r="X550" t="n">
         <v>19591</v>
@@ -47311,7 +47311,7 @@
         <v>1</v>
       </c>
       <c r="W551" s="3" t="n">
-        <v>325.1640651005324</v>
+        <v>325.189961738044</v>
       </c>
       <c r="X551" t="n">
         <v>19585</v>
@@ -47396,7 +47396,7 @@
         <v>1</v>
       </c>
       <c r="W552" s="3" t="n">
-        <v>325.1640651005324</v>
+        <v>325.189961738044</v>
       </c>
       <c r="X552" t="n">
         <v>19586</v>
@@ -47481,7 +47481,7 @@
         <v>1</v>
       </c>
       <c r="W553" s="3" t="n">
-        <v>325.1640651005324</v>
+        <v>325.189961738044</v>
       </c>
       <c r="X553" t="n">
         <v>19586</v>
@@ -47566,7 +47566,7 @@
         <v>1</v>
       </c>
       <c r="W554" s="3" t="n">
-        <v>325.1640651005324</v>
+        <v>325.189961738044</v>
       </c>
       <c r="X554" t="n">
         <v>19591</v>
@@ -47651,7 +47651,7 @@
         <v>1</v>
       </c>
       <c r="W555" s="3" t="n">
-        <v>325.1640651005324</v>
+        <v>325.189961738044</v>
       </c>
       <c r="X555" t="n">
         <v>19588</v>
@@ -47736,7 +47736,7 @@
         <v>1</v>
       </c>
       <c r="W556" s="3" t="n">
-        <v>325.1640651005324</v>
+        <v>325.189961738044</v>
       </c>
       <c r="X556" t="n">
         <v>19588</v>
@@ -47821,7 +47821,7 @@
         <v>1</v>
       </c>
       <c r="W557" s="3" t="n">
-        <v>325.1640651005324</v>
+        <v>325.189961738044</v>
       </c>
       <c r="X557" t="n">
         <v>19585</v>
@@ -47906,7 +47906,7 @@
         <v>1</v>
       </c>
       <c r="W558" s="3" t="n">
-        <v>325.9557317671991</v>
+        <v>325.9816284047106</v>
       </c>
       <c r="X558" t="n">
         <v>19592</v>
@@ -47991,7 +47991,7 @@
         <v>1</v>
       </c>
       <c r="W559" s="3" t="n">
-        <v>325.9557317671991</v>
+        <v>325.9816284047106</v>
       </c>
       <c r="X559" t="n">
         <v>19592</v>
@@ -48076,7 +48076,7 @@
         <v>1</v>
       </c>
       <c r="W560" s="3" t="n">
-        <v>330.9973984338657</v>
+        <v>331.0232950713773</v>
       </c>
       <c r="X560" t="n">
         <v>19580</v>
@@ -48161,7 +48161,7 @@
         <v>1</v>
       </c>
       <c r="W561" s="3" t="n">
-        <v>330.9973984338657</v>
+        <v>331.0232950713773</v>
       </c>
       <c r="X561" t="n">
         <v>19580</v>
@@ -48246,7 +48246,7 @@
         <v>1</v>
       </c>
       <c r="W562" s="3" t="n">
-        <v>331.0807317671991</v>
+        <v>331.1066284047106</v>
       </c>
       <c r="X562" t="n">
         <v>19582</v>
@@ -48331,7 +48331,7 @@
         <v>1</v>
       </c>
       <c r="W563" s="3" t="n">
-        <v>331.0807317671991</v>
+        <v>331.1066284047106</v>
       </c>
       <c r="X563" t="n">
         <v>19582</v>
@@ -48416,7 +48416,7 @@
         <v>1</v>
       </c>
       <c r="W564" s="3" t="n">
-        <v>331.1640651005324</v>
+        <v>331.189961738044</v>
       </c>
       <c r="X564" t="n">
         <v>19581</v>
@@ -48501,7 +48501,7 @@
         <v>1</v>
       </c>
       <c r="W565" s="3" t="n">
-        <v>331.1640651005324</v>
+        <v>331.189961738044</v>
       </c>
       <c r="X565" t="n">
         <v>19581</v>
@@ -48586,7 +48586,7 @@
         <v>1</v>
       </c>
       <c r="W566" s="3" t="n">
-        <v>332.0390651005324</v>
+        <v>332.064961738044</v>
       </c>
       <c r="X566" t="n">
         <v>19584</v>
@@ -48671,7 +48671,7 @@
         <v>1</v>
       </c>
       <c r="W567" s="3" t="n">
-        <v>332.0390651005324</v>
+        <v>332.064961738044</v>
       </c>
       <c r="X567" t="n">
         <v>19584</v>
@@ -48756,7 +48756,7 @@
         <v>1</v>
       </c>
       <c r="W568" s="3" t="n">
-        <v>332.1640651005324</v>
+        <v>332.189961738044</v>
       </c>
       <c r="X568" t="n">
         <v>19576</v>
@@ -48841,7 +48841,7 @@
         <v>1</v>
       </c>
       <c r="W569" s="3" t="n">
-        <v>332.1640651005324</v>
+        <v>332.189961738044</v>
       </c>
       <c r="X569" t="n">
         <v>19576</v>
@@ -48926,7 +48926,7 @@
         <v>1</v>
       </c>
       <c r="W570" s="3" t="n">
-        <v>332.1640651005324</v>
+        <v>332.189961738044</v>
       </c>
       <c r="X570" t="n">
         <v>19578</v>
@@ -49011,7 +49011,7 @@
         <v>1</v>
       </c>
       <c r="W571" s="3" t="n">
-        <v>332.1640651005324</v>
+        <v>332.189961738044</v>
       </c>
       <c r="X571" t="n">
         <v>19577</v>
@@ -49096,7 +49096,7 @@
         <v>1</v>
       </c>
       <c r="W572" s="3" t="n">
-        <v>332.1640651005324</v>
+        <v>332.189961738044</v>
       </c>
       <c r="X572" t="n">
         <v>19577</v>
@@ -49181,7 +49181,7 @@
         <v>1</v>
       </c>
       <c r="W573" s="3" t="n">
-        <v>332.1640651005324</v>
+        <v>332.189961738044</v>
       </c>
       <c r="X573" t="n">
         <v>19578</v>
@@ -49266,7 +49266,7 @@
         <v>1</v>
       </c>
       <c r="W574" s="3" t="n">
-        <v>332.1640651005324</v>
+        <v>332.189961738044</v>
       </c>
       <c r="X574" t="n">
         <v>19579</v>
@@ -49351,7 +49351,7 @@
         <v>1</v>
       </c>
       <c r="W575" s="3" t="n">
-        <v>332.1640651005324</v>
+        <v>332.189961738044</v>
       </c>
       <c r="X575" t="n">
         <v>19583</v>
@@ -49436,7 +49436,7 @@
         <v>1</v>
       </c>
       <c r="W576" s="3" t="n">
-        <v>332.1640651005324</v>
+        <v>332.189961738044</v>
       </c>
       <c r="X576" t="n">
         <v>19583</v>
@@ -49521,7 +49521,7 @@
         <v>1</v>
       </c>
       <c r="W577" s="3" t="n">
-        <v>332.1640651005324</v>
+        <v>332.189961738044</v>
       </c>
       <c r="X577" t="n">
         <v>19579</v>
@@ -49606,7 +49606,7 @@
         <v>1</v>
       </c>
       <c r="W578" s="3" t="n">
-        <v>338.0807317671991</v>
+        <v>338.1066284047106</v>
       </c>
       <c r="X578" t="n">
         <v>19573</v>
@@ -49691,7 +49691,7 @@
         <v>1</v>
       </c>
       <c r="W579" s="3" t="n">
-        <v>338.0807317671991</v>
+        <v>338.1066284047106</v>
       </c>
       <c r="X579" t="n">
         <v>19573</v>
@@ -49776,7 +49776,7 @@
         <v>1</v>
       </c>
       <c r="W580" s="3" t="n">
-        <v>338.1640651005324</v>
+        <v>338.189961738044</v>
       </c>
       <c r="X580" t="n">
         <v>19569</v>
@@ -49861,7 +49861,7 @@
         <v>1</v>
       </c>
       <c r="W581" s="3" t="n">
-        <v>338.1640651005324</v>
+        <v>338.189961738044</v>
       </c>
       <c r="X581" t="n">
         <v>19569</v>
@@ -49946,7 +49946,7 @@
         <v>1</v>
       </c>
       <c r="W582" s="3" t="n">
-        <v>339.0390651005324</v>
+        <v>339.064961738044</v>
       </c>
       <c r="X582" t="n">
         <v>19574</v>
@@ -50031,7 +50031,7 @@
         <v>1</v>
       </c>
       <c r="W583" s="3" t="n">
-        <v>339.0390651005324</v>
+        <v>339.064961738044</v>
       </c>
       <c r="X583" t="n">
         <v>19574</v>
@@ -50116,7 +50116,7 @@
         <v>1</v>
       </c>
       <c r="W584" s="3" t="n">
-        <v>339.1640651005324</v>
+        <v>339.189961738044</v>
       </c>
       <c r="X584" t="n">
         <v>19567</v>
@@ -50201,7 +50201,7 @@
         <v>1</v>
       </c>
       <c r="W585" s="3" t="n">
-        <v>339.1640651005324</v>
+        <v>339.189961738044</v>
       </c>
       <c r="X585" t="n">
         <v>19568</v>
@@ -50286,7 +50286,7 @@
         <v>1</v>
       </c>
       <c r="W586" s="3" t="n">
-        <v>339.1640651005324</v>
+        <v>339.189961738044</v>
       </c>
       <c r="X586" t="n">
         <v>19568</v>
@@ -50371,7 +50371,7 @@
         <v>1</v>
       </c>
       <c r="W587" s="3" t="n">
-        <v>339.1640651005324</v>
+        <v>339.189961738044</v>
       </c>
       <c r="X587" t="n">
         <v>19567</v>
@@ -50456,7 +50456,7 @@
         <v>1</v>
       </c>
       <c r="W588" s="3" t="n">
-        <v>339.1640651005324</v>
+        <v>339.189961738044</v>
       </c>
       <c r="X588" t="n">
         <v>19571</v>
@@ -50541,7 +50541,7 @@
         <v>1</v>
       </c>
       <c r="W589" s="3" t="n">
-        <v>339.1640651005324</v>
+        <v>339.189961738044</v>
       </c>
       <c r="X589" t="n">
         <v>19571</v>
@@ -50626,7 +50626,7 @@
         <v>1</v>
       </c>
       <c r="W590" s="3" t="n">
-        <v>339.1640651005324</v>
+        <v>339.189961738044</v>
       </c>
       <c r="X590" t="n">
         <v>19572</v>
@@ -50711,7 +50711,7 @@
         <v>1</v>
       </c>
       <c r="W591" s="3" t="n">
-        <v>339.1640651005324</v>
+        <v>339.189961738044</v>
       </c>
       <c r="X591" t="n">
         <v>19572</v>
@@ -50796,7 +50796,7 @@
         <v>1</v>
       </c>
       <c r="W592" s="3" t="n">
-        <v>339.1640651005324</v>
+        <v>339.189961738044</v>
       </c>
       <c r="X592" t="n">
         <v>19575</v>
@@ -50881,7 +50881,7 @@
         <v>1</v>
       </c>
       <c r="W593" s="3" t="n">
-        <v>339.1640651005324</v>
+        <v>339.189961738044</v>
       </c>
       <c r="X593" t="n">
         <v>19575</v>
@@ -50966,7 +50966,7 @@
         <v>1</v>
       </c>
       <c r="W594" s="3" t="n">
-        <v>339.9140651005324</v>
+        <v>339.939961738044</v>
       </c>
       <c r="X594" t="n">
         <v>19570</v>
@@ -51051,7 +51051,7 @@
         <v>1</v>
       </c>
       <c r="W595" s="3" t="n">
-        <v>339.9140651005324</v>
+        <v>339.939961738044</v>
       </c>
       <c r="X595" t="n">
         <v>19570</v>
@@ -51136,7 +51136,7 @@
         <v>1</v>
       </c>
       <c r="W596" s="3" t="n">
-        <v>351.9557317671991</v>
+        <v>351.9816284047106</v>
       </c>
       <c r="X596" t="n">
         <v>19561</v>
@@ -51221,7 +51221,7 @@
         <v>1</v>
       </c>
       <c r="W597" s="3" t="n">
-        <v>351.9557317671991</v>
+        <v>351.9816284047106</v>
       </c>
       <c r="X597" t="n">
         <v>19561</v>
@@ -51306,7 +51306,7 @@
         <v>1</v>
       </c>
       <c r="W598" s="3" t="n">
-        <v>352.0390651005324</v>
+        <v>352.064961738044</v>
       </c>
       <c r="X598" t="n">
         <v>19559</v>
@@ -51391,7 +51391,7 @@
         <v>1</v>
       </c>
       <c r="W599" s="3" t="n">
-        <v>352.0390651005324</v>
+        <v>352.064961738044</v>
       </c>
       <c r="X599" t="n">
         <v>19559</v>
@@ -51476,7 +51476,7 @@
         <v>1</v>
       </c>
       <c r="W600" s="3" t="n">
-        <v>352.1223984338657</v>
+        <v>352.1482950713773</v>
       </c>
       <c r="X600" t="n">
         <v>19560</v>
@@ -51561,7 +51561,7 @@
         <v>1</v>
       </c>
       <c r="W601" s="3" t="n">
-        <v>352.1223984338657</v>
+        <v>352.1482950713773</v>
       </c>
       <c r="X601" t="n">
         <v>19560</v>
@@ -51646,7 +51646,7 @@
         <v>1</v>
       </c>
       <c r="W602" s="3" t="n">
-        <v>352.9973984338657</v>
+        <v>353.0232950713773</v>
       </c>
       <c r="X602" t="n">
         <v>19558</v>
@@ -51731,7 +51731,7 @@
         <v>1</v>
       </c>
       <c r="W603" s="3" t="n">
-        <v>352.9973984338657</v>
+        <v>353.0232950713773</v>
       </c>
       <c r="X603" t="n">
         <v>19558</v>
@@ -51816,7 +51816,7 @@
         <v>1</v>
       </c>
       <c r="W604" s="3" t="n">
-        <v>353.1223984338657</v>
+        <v>353.1482950713773</v>
       </c>
       <c r="X604" t="n">
         <v>19562</v>
@@ -51901,7 +51901,7 @@
         <v>1</v>
       </c>
       <c r="W605" s="3" t="n">
-        <v>353.1223984338657</v>
+        <v>353.1482950713773</v>
       </c>
       <c r="X605" t="n">
         <v>19562</v>
@@ -51986,7 +51986,7 @@
         <v>1</v>
       </c>
       <c r="W606" s="3" t="n">
-        <v>353.1223984338657</v>
+        <v>353.1482950713773</v>
       </c>
       <c r="X606" t="n">
         <v>19564</v>
@@ -52071,7 +52071,7 @@
         <v>1</v>
       </c>
       <c r="W607" s="3" t="n">
-        <v>353.1223984338657</v>
+        <v>353.1482950713773</v>
       </c>
       <c r="X607" t="n">
         <v>19565</v>
@@ -52156,7 +52156,7 @@
         <v>1</v>
       </c>
       <c r="W608" s="3" t="n">
-        <v>353.1223984338657</v>
+        <v>353.1482950713773</v>
       </c>
       <c r="X608" t="n">
         <v>19565</v>
@@ -52241,7 +52241,7 @@
         <v>1</v>
       </c>
       <c r="W609" s="3" t="n">
-        <v>353.1223984338657</v>
+        <v>353.1482950713773</v>
       </c>
       <c r="X609" t="n">
         <v>19566</v>
@@ -52326,7 +52326,7 @@
         <v>1</v>
       </c>
       <c r="W610" s="3" t="n">
-        <v>353.1223984338657</v>
+        <v>353.1482950713773</v>
       </c>
       <c r="X610" t="n">
         <v>19566</v>
@@ -52411,7 +52411,7 @@
         <v>1</v>
       </c>
       <c r="W611" s="3" t="n">
-        <v>353.1223984338657</v>
+        <v>353.1482950713773</v>
       </c>
       <c r="X611" t="n">
         <v>19564</v>
@@ -52496,7 +52496,7 @@
         <v>1</v>
       </c>
       <c r="W612" s="3" t="n">
-        <v>353.9140651005324</v>
+        <v>353.939961738044</v>
       </c>
       <c r="X612" t="n">
         <v>19563</v>
@@ -52581,7 +52581,7 @@
         <v>1</v>
       </c>
       <c r="W613" s="3" t="n">
-        <v>353.9140651005324</v>
+        <v>353.939961738044</v>
       </c>
       <c r="X613" t="n">
         <v>19563</v>
